--- a/data/raw/hb_pedons_analysis_0426.xlsx
+++ b/data/raw/hb_pedons_analysis_0426.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penninoa/Documents/VT/Data/MyData/Soil_Analyses/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DB7A9F-80C7-1043-801A-0FF25FBB2989}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED26E17-8DD6-5247-98E7-27429584C5F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="580" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27440" yWindow="2460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="horizon data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="317">
   <si>
     <t>pedon</t>
   </si>
@@ -942,6 +942,36 @@
   </si>
   <si>
     <t>Beech, white birch</t>
+  </si>
+  <si>
+    <t>Bhs2.1</t>
+  </si>
+  <si>
+    <t>Bhs2.2</t>
+  </si>
+  <si>
+    <t>Bhs2.3</t>
+  </si>
+  <si>
+    <t>Bhs3.3</t>
+  </si>
+  <si>
+    <t>Bhs3.1</t>
+  </si>
+  <si>
+    <t>Bhs3.2</t>
+  </si>
+  <si>
+    <t>Bs2.1</t>
+  </si>
+  <si>
+    <t>Bs2.2</t>
+  </si>
+  <si>
+    <t>E1.1</t>
+  </si>
+  <si>
+    <t>E1.2</t>
   </si>
 </sst>
 </file>
@@ -1795,13 +1825,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D162" sqref="D162"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -3339,9 +3370,8 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="D34" t="s">
+        <v>307</v>
       </c>
       <c r="E34">
         <v>21</v>
@@ -3402,9 +3432,8 @@
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="D35" t="s">
+        <v>308</v>
       </c>
       <c r="E35">
         <v>28</v>
@@ -3465,9 +3494,8 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="D36" t="s">
+        <v>311</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -3528,9 +3556,8 @@
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="D37" t="s">
+        <v>312</v>
       </c>
       <c r="E37">
         <v>45</v>
@@ -3591,9 +3618,8 @@
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="D38" t="s">
+        <v>310</v>
       </c>
       <c r="E38">
         <v>55</v>
@@ -5481,9 +5507,8 @@
       <c r="C75">
         <v>1</v>
       </c>
-      <c r="D75" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="D75" t="s">
+        <v>307</v>
       </c>
       <c r="E75">
         <v>32.5</v>
@@ -5544,9 +5569,8 @@
       <c r="C76">
         <v>2</v>
       </c>
-      <c r="D76" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="D76" t="s">
+        <v>308</v>
       </c>
       <c r="E76">
         <v>38</v>
@@ -7775,9 +7799,8 @@
       <c r="C122">
         <v>1</v>
       </c>
-      <c r="D122" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="D122" t="s">
+        <v>315</v>
       </c>
       <c r="E122">
         <v>12.5</v>
@@ -7838,9 +7861,8 @@
       <c r="C123">
         <v>2</v>
       </c>
-      <c r="D123" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="D123" t="s">
+        <v>316</v>
       </c>
       <c r="E123">
         <v>19.5</v>
@@ -8561,9 +8583,8 @@
       <c r="C137">
         <v>1</v>
       </c>
-      <c r="D137" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+      <c r="D137" t="s">
+        <v>307</v>
       </c>
       <c r="E137">
         <v>20</v>
@@ -8624,9 +8645,8 @@
       <c r="C138">
         <v>2</v>
       </c>
-      <c r="D138" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+      <c r="D138" t="s">
+        <v>308</v>
       </c>
       <c r="E138">
         <v>28</v>
@@ -8687,9 +8707,8 @@
       <c r="C139">
         <v>3</v>
       </c>
-      <c r="D139" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+      <c r="D139" t="s">
+        <v>309</v>
       </c>
       <c r="E139">
         <v>36</v>
@@ -9604,9 +9623,8 @@
       <c r="C156">
         <v>1</v>
       </c>
-      <c r="D156" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+      <c r="D156" t="s">
+        <v>313</v>
       </c>
       <c r="E156">
         <v>36</v>
@@ -9667,9 +9685,8 @@
       <c r="C157">
         <v>2</v>
       </c>
-      <c r="D157" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+      <c r="D157" t="s">
+        <v>314</v>
       </c>
       <c r="E157">
         <v>45</v>
@@ -13553,9 +13570,8 @@
       <c r="B228" t="s">
         <v>92</v>
       </c>
-      <c r="D228" t="str">
-        <f t="shared" si="3"/>
-        <v>A</v>
+      <c r="D228" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="E228">
         <v>12</v>
@@ -13610,9 +13626,8 @@
       <c r="B229" t="s">
         <v>60</v>
       </c>
-      <c r="D229" t="str">
-        <f t="shared" si="3"/>
-        <v>Bhs1</v>
+      <c r="D229" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E229">
         <v>17</v>
@@ -13667,9 +13682,8 @@
       <c r="B230" t="s">
         <v>62</v>
       </c>
-      <c r="D230" t="str">
-        <f t="shared" si="3"/>
-        <v>Bhs2</v>
+      <c r="D230" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E230">
         <v>20</v>
@@ -13724,9 +13738,8 @@
       <c r="C231">
         <v>1</v>
       </c>
-      <c r="D231" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="D231" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="E231">
         <v>20</v>
@@ -13784,9 +13797,8 @@
       <c r="C232">
         <v>2</v>
       </c>
-      <c r="D232" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="D232" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="E232">
         <v>27</v>
@@ -13844,9 +13856,8 @@
       <c r="C233">
         <v>1</v>
       </c>
-      <c r="D233" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="D233" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="E233">
         <v>34</v>
@@ -13907,9 +13918,8 @@
       <c r="C234">
         <v>2</v>
       </c>
-      <c r="D234" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="D234" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="E234">
         <v>41</v>
@@ -13967,9 +13977,8 @@
       <c r="B235" t="s">
         <v>65</v>
       </c>
-      <c r="D235" t="str">
-        <f t="shared" si="3"/>
-        <v>Bhs3</v>
+      <c r="D235" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E235">
         <v>34</v>

--- a/data/raw/hb_pedons_analysis_0426.xlsx
+++ b/data/raw/hb_pedons_analysis_0426.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penninoa/Documents/VT/Data/MyData/Soil_Analyses/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab/Exchangeable/VT/Soil_Analyses/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED26E17-8DD6-5247-98E7-27429584C5F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1BEB3D-6428-644A-B87A-71E94DF88BC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27440" yWindow="2460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15820" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="horizon data" sheetId="1" r:id="rId1"/>
     <sheet name="pedon data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="283">
   <si>
     <t>pedon</t>
   </si>
@@ -590,78 +601,6 @@
     <t>orig_horizon</t>
   </si>
   <si>
-    <t>BC1</t>
-  </si>
-  <si>
-    <t>BC2</t>
-  </si>
-  <si>
-    <t>BC3</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>D14</t>
-  </si>
-  <si>
-    <t>D15</t>
-  </si>
-  <si>
-    <t>D16</t>
-  </si>
-  <si>
-    <t>Bs3</t>
-  </si>
-  <si>
     <t>Watershed</t>
   </si>
   <si>
@@ -942,36 +881,6 @@
   </si>
   <si>
     <t>Beech, white birch</t>
-  </si>
-  <si>
-    <t>Bhs2.1</t>
-  </si>
-  <si>
-    <t>Bhs2.2</t>
-  </si>
-  <si>
-    <t>Bhs2.3</t>
-  </si>
-  <si>
-    <t>Bhs3.3</t>
-  </si>
-  <si>
-    <t>Bhs3.1</t>
-  </si>
-  <si>
-    <t>Bhs3.2</t>
-  </si>
-  <si>
-    <t>Bs2.1</t>
-  </si>
-  <si>
-    <t>Bs2.2</t>
-  </si>
-  <si>
-    <t>E1.1</t>
-  </si>
-  <si>
-    <t>E1.2</t>
   </si>
 </sst>
 </file>
@@ -1825,13 +1734,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D276" sqref="D276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2552,8 +2461,9 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>49</v>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>E.1</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -2614,8 +2524,9 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
-        <v>53</v>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>E.2</v>
       </c>
       <c r="E19">
         <v>14</v>
@@ -2676,8 +2587,9 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
-        <v>204</v>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>E.3</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -2738,8 +2650,9 @@
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" t="s">
-        <v>205</v>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>E.4</v>
       </c>
       <c r="E21">
         <v>28</v>
@@ -3370,8 +3283,9 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" t="s">
-        <v>307</v>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>Bhs2.1</v>
       </c>
       <c r="E34">
         <v>21</v>
@@ -3432,8 +3346,9 @@
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
-        <v>308</v>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>Bhs2.2</v>
       </c>
       <c r="E35">
         <v>28</v>
@@ -3494,8 +3409,9 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
-        <v>311</v>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>Bhs3.1</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -3556,8 +3472,9 @@
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
-        <v>312</v>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>Bhs3.2</v>
       </c>
       <c r="E37">
         <v>45</v>
@@ -3618,8 +3535,9 @@
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38" t="s">
-        <v>310</v>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>Bhs3.3</v>
       </c>
       <c r="E38">
         <v>55</v>
@@ -3680,8 +3598,9 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
-        <v>189</v>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>BC.1</v>
       </c>
       <c r="E39">
         <v>62</v>
@@ -3745,8 +3664,9 @@
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40" t="s">
-        <v>190</v>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>BC.2</v>
       </c>
       <c r="E40">
         <v>67</v>
@@ -3810,8 +3730,9 @@
       <c r="C41">
         <v>3</v>
       </c>
-      <c r="D41" t="s">
-        <v>191</v>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>BC.3</v>
       </c>
       <c r="E41">
         <v>77</v>
@@ -3875,8 +3796,9 @@
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
-        <v>202</v>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>C.1</v>
       </c>
       <c r="E42">
         <v>82</v>
@@ -3937,8 +3859,9 @@
       <c r="C43">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
-        <v>203</v>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>C.2</v>
       </c>
       <c r="E43">
         <v>87</v>
@@ -3999,8 +3922,9 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
-        <v>192</v>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>D.1</v>
       </c>
       <c r="E44">
         <v>93</v>
@@ -4061,8 +3985,9 @@
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45" t="s">
-        <v>193</v>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>D.2</v>
       </c>
       <c r="E45">
         <v>108</v>
@@ -4114,8 +4039,9 @@
       <c r="C46">
         <v>3</v>
       </c>
-      <c r="D46" t="s">
-        <v>194</v>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>D.3</v>
       </c>
       <c r="E46">
         <v>126</v>
@@ -4140,8 +4066,9 @@
       <c r="C47">
         <v>4</v>
       </c>
-      <c r="D47" t="s">
-        <v>195</v>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>D.4</v>
       </c>
       <c r="E47">
         <v>186</v>
@@ -4169,8 +4096,9 @@
       <c r="C48">
         <v>5</v>
       </c>
-      <c r="D48" t="s">
-        <v>196</v>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>D.5</v>
       </c>
       <c r="E48">
         <v>225</v>
@@ -4213,8 +4141,9 @@
       <c r="C49">
         <v>6</v>
       </c>
-      <c r="D49" t="s">
-        <v>197</v>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>D.6</v>
       </c>
       <c r="E49">
         <v>235</v>
@@ -4257,8 +4186,9 @@
       <c r="C50">
         <v>7</v>
       </c>
-      <c r="D50" t="s">
-        <v>198</v>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>D.7</v>
       </c>
       <c r="E50">
         <v>245</v>
@@ -4301,8 +4231,9 @@
       <c r="C51">
         <v>8</v>
       </c>
-      <c r="D51" t="s">
-        <v>199</v>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>D.8</v>
       </c>
       <c r="E51">
         <v>255</v>
@@ -4345,8 +4276,9 @@
       <c r="C52">
         <v>9</v>
       </c>
-      <c r="D52" t="s">
-        <v>200</v>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>D.9</v>
       </c>
       <c r="E52">
         <v>260</v>
@@ -4389,8 +4321,9 @@
       <c r="C53">
         <v>10</v>
       </c>
-      <c r="D53" t="s">
-        <v>201</v>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>D.10</v>
       </c>
       <c r="E53">
         <v>270</v>
@@ -5507,8 +5440,9 @@
       <c r="C75">
         <v>1</v>
       </c>
-      <c r="D75" t="s">
-        <v>307</v>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>Bhs2.1</v>
       </c>
       <c r="E75">
         <v>32.5</v>
@@ -5569,8 +5503,9 @@
       <c r="C76">
         <v>2</v>
       </c>
-      <c r="D76" t="s">
-        <v>308</v>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>Bhs2.2</v>
       </c>
       <c r="E76">
         <v>38</v>
@@ -5631,8 +5566,9 @@
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77" t="s">
-        <v>126</v>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>Bh.1</v>
       </c>
       <c r="E77">
         <v>43</v>
@@ -5693,8 +5629,9 @@
       <c r="C78">
         <v>2</v>
       </c>
-      <c r="D78" t="s">
-        <v>128</v>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>Bh.2</v>
       </c>
       <c r="E78">
         <v>50</v>
@@ -5867,10 +5804,14 @@
         <v>106</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>202</v>
+        <v>79</v>
+      </c>
+      <c r="C81" s="4">
+        <v>1</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>C.1</v>
       </c>
       <c r="E81" s="4">
         <v>73.5</v>
@@ -5923,10 +5864,14 @@
         <v>106</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>203</v>
+        <v>79</v>
+      </c>
+      <c r="C82" s="4">
+        <v>2</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>C.2</v>
       </c>
       <c r="E82" s="4">
         <v>82</v>
@@ -5987,8 +5932,9 @@
       <c r="C83" s="4">
         <v>1</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>192</v>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>D.1</v>
       </c>
       <c r="E83" s="4">
         <v>87</v>
@@ -6040,8 +5986,9 @@
       <c r="C84">
         <v>2</v>
       </c>
-      <c r="D84" t="s">
-        <v>193</v>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>D.2</v>
       </c>
       <c r="E84">
         <v>94</v>
@@ -6093,8 +6040,9 @@
       <c r="C85">
         <v>3</v>
       </c>
-      <c r="D85" t="s">
-        <v>194</v>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>D.3</v>
       </c>
       <c r="E85">
         <v>110</v>
@@ -6143,8 +6091,9 @@
       <c r="C86">
         <v>4</v>
       </c>
-      <c r="D86" t="s">
-        <v>195</v>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>D.4</v>
       </c>
       <c r="E86">
         <v>118</v>
@@ -6196,8 +6145,9 @@
       <c r="C87">
         <v>5</v>
       </c>
-      <c r="D87" t="s">
-        <v>196</v>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>D.5</v>
       </c>
       <c r="E87">
         <v>126.5</v>
@@ -6249,8 +6199,9 @@
       <c r="C88">
         <v>6</v>
       </c>
-      <c r="D88" t="s">
-        <v>197</v>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>D.6</v>
       </c>
       <c r="E88">
         <v>147</v>
@@ -6299,8 +6250,9 @@
       <c r="C89">
         <v>7</v>
       </c>
-      <c r="D89" t="s">
-        <v>198</v>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>D.7</v>
       </c>
       <c r="E89">
         <v>150</v>
@@ -6352,8 +6304,9 @@
       <c r="C90">
         <v>8</v>
       </c>
-      <c r="D90" t="s">
-        <v>199</v>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>D.8</v>
       </c>
       <c r="E90">
         <v>166</v>
@@ -6378,8 +6331,9 @@
       <c r="C91">
         <v>9</v>
       </c>
-      <c r="D91" t="s">
-        <v>200</v>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>D.9</v>
       </c>
       <c r="E91">
         <v>180</v>
@@ -7799,8 +7753,9 @@
       <c r="C122">
         <v>1</v>
       </c>
-      <c r="D122" t="s">
-        <v>315</v>
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>E1.1</v>
       </c>
       <c r="E122">
         <v>12.5</v>
@@ -7861,8 +7816,9 @@
       <c r="C123">
         <v>2</v>
       </c>
-      <c r="D123" t="s">
-        <v>316</v>
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>E1.2</v>
       </c>
       <c r="E123">
         <v>19.5</v>
@@ -8583,8 +8539,9 @@
       <c r="C137">
         <v>1</v>
       </c>
-      <c r="D137" t="s">
-        <v>307</v>
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v>Bhs2.1</v>
       </c>
       <c r="E137">
         <v>20</v>
@@ -8645,8 +8602,9 @@
       <c r="C138">
         <v>2</v>
       </c>
-      <c r="D138" t="s">
-        <v>308</v>
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v>Bhs2.2</v>
       </c>
       <c r="E138">
         <v>28</v>
@@ -8707,8 +8665,9 @@
       <c r="C139">
         <v>3</v>
       </c>
-      <c r="D139" t="s">
-        <v>309</v>
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>Bhs2.3</v>
       </c>
       <c r="E139">
         <v>36</v>
@@ -8766,8 +8725,12 @@
       <c r="B140" t="s">
         <v>67</v>
       </c>
-      <c r="D140" t="s">
-        <v>189</v>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v>BC.1</v>
       </c>
       <c r="E140">
         <v>46</v>
@@ -8825,8 +8788,12 @@
       <c r="B141" t="s">
         <v>67</v>
       </c>
-      <c r="D141" t="s">
-        <v>190</v>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v>BC.2</v>
       </c>
       <c r="E141">
         <v>55</v>
@@ -8887,8 +8854,9 @@
       <c r="C142">
         <v>1</v>
       </c>
-      <c r="D142" t="s">
-        <v>192</v>
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v>D.1</v>
       </c>
       <c r="E142">
         <v>105</v>
@@ -8916,8 +8884,9 @@
       <c r="C143">
         <v>3</v>
       </c>
-      <c r="D143" t="s">
-        <v>194</v>
+      <c r="D143" t="str">
+        <f t="shared" si="2"/>
+        <v>D.3</v>
       </c>
       <c r="E143">
         <v>280</v>
@@ -9623,8 +9592,9 @@
       <c r="C156">
         <v>1</v>
       </c>
-      <c r="D156" t="s">
-        <v>313</v>
+      <c r="D156" t="str">
+        <f t="shared" si="2"/>
+        <v>Bs2.1</v>
       </c>
       <c r="E156">
         <v>36</v>
@@ -9685,8 +9655,9 @@
       <c r="C157">
         <v>2</v>
       </c>
-      <c r="D157" t="s">
-        <v>314</v>
+      <c r="D157" t="str">
+        <f t="shared" si="2"/>
+        <v>Bs2.2</v>
       </c>
       <c r="E157">
         <v>45</v>
@@ -9747,8 +9718,9 @@
       <c r="C158">
         <v>1</v>
       </c>
-      <c r="D158" t="s">
-        <v>189</v>
+      <c r="D158" t="str">
+        <f t="shared" si="2"/>
+        <v>BC.1</v>
       </c>
       <c r="E158">
         <v>54.5</v>
@@ -9809,8 +9781,9 @@
       <c r="C159">
         <v>2</v>
       </c>
-      <c r="D159" t="s">
-        <v>190</v>
+      <c r="D159" t="str">
+        <f t="shared" si="2"/>
+        <v>BC.2</v>
       </c>
       <c r="E159">
         <v>62</v>
@@ -9871,8 +9844,9 @@
       <c r="C160">
         <v>1</v>
       </c>
-      <c r="D160" t="s">
-        <v>192</v>
+      <c r="D160" t="str">
+        <f t="shared" si="2"/>
+        <v>C.1</v>
       </c>
       <c r="E160">
         <v>75</v>
@@ -9930,8 +9904,9 @@
       <c r="C161">
         <v>2</v>
       </c>
-      <c r="D161" t="s">
-        <v>193</v>
+      <c r="D161" t="str">
+        <f t="shared" si="2"/>
+        <v>C.2</v>
       </c>
       <c r="E161">
         <v>85</v>
@@ -9989,8 +9964,9 @@
       <c r="C162">
         <v>3</v>
       </c>
-      <c r="D162" t="s">
-        <v>194</v>
+      <c r="D162" t="str">
+        <f t="shared" si="2"/>
+        <v>D.3</v>
       </c>
       <c r="E162">
         <v>109</v>
@@ -10051,8 +10027,9 @@
       <c r="C163">
         <v>4</v>
       </c>
-      <c r="D163" t="s">
-        <v>195</v>
+      <c r="D163" t="str">
+        <f t="shared" si="2"/>
+        <v>D.4</v>
       </c>
       <c r="E163">
         <v>112</v>
@@ -10110,8 +10087,9 @@
       <c r="C164">
         <v>5</v>
       </c>
-      <c r="D164" t="s">
-        <v>196</v>
+      <c r="D164" t="str">
+        <f t="shared" si="2"/>
+        <v>D.5</v>
       </c>
       <c r="E164">
         <v>126</v>
@@ -10166,8 +10144,9 @@
       <c r="C165">
         <v>6</v>
       </c>
-      <c r="D165" t="s">
-        <v>197</v>
+      <c r="D165" t="str">
+        <f t="shared" si="2"/>
+        <v>D.6</v>
       </c>
       <c r="E165">
         <v>134</v>
@@ -10225,8 +10204,9 @@
       <c r="C166">
         <v>7</v>
       </c>
-      <c r="D166" t="s">
-        <v>198</v>
+      <c r="D166" t="str">
+        <f t="shared" si="2"/>
+        <v>D.7</v>
       </c>
       <c r="E166">
         <v>144</v>
@@ -10284,8 +10264,9 @@
       <c r="C167">
         <v>8</v>
       </c>
-      <c r="D167" t="s">
-        <v>199</v>
+      <c r="D167" t="str">
+        <f t="shared" si="2"/>
+        <v>D.8</v>
       </c>
       <c r="E167">
         <v>155</v>
@@ -10346,8 +10327,9 @@
       <c r="C168">
         <v>9</v>
       </c>
-      <c r="D168" t="s">
-        <v>200</v>
+      <c r="D168" t="str">
+        <f t="shared" si="2"/>
+        <v>D.9</v>
       </c>
       <c r="E168">
         <v>160</v>
@@ -10405,8 +10387,9 @@
       <c r="C169">
         <v>10</v>
       </c>
-      <c r="D169" t="s">
-        <v>201</v>
+      <c r="D169" t="str">
+        <f t="shared" si="2"/>
+        <v>D.10</v>
       </c>
       <c r="E169">
         <v>172</v>
@@ -10464,8 +10447,9 @@
       <c r="C170">
         <v>11</v>
       </c>
-      <c r="D170" t="s">
-        <v>206</v>
+      <c r="D170" t="str">
+        <f t="shared" si="2"/>
+        <v>D.11</v>
       </c>
       <c r="E170">
         <v>184</v>
@@ -10523,8 +10507,9 @@
       <c r="C171">
         <v>12</v>
       </c>
-      <c r="D171" t="s">
-        <v>207</v>
+      <c r="D171" t="str">
+        <f t="shared" si="2"/>
+        <v>D.12</v>
       </c>
       <c r="E171">
         <v>190</v>
@@ -10579,8 +10564,9 @@
       <c r="C172">
         <v>13</v>
       </c>
-      <c r="D172" t="s">
-        <v>208</v>
+      <c r="D172" t="str">
+        <f t="shared" si="2"/>
+        <v>D.13</v>
       </c>
       <c r="E172">
         <v>207</v>
@@ -10638,8 +10624,9 @@
       <c r="C173">
         <v>14</v>
       </c>
-      <c r="D173" t="s">
-        <v>209</v>
+      <c r="D173" t="str">
+        <f t="shared" si="2"/>
+        <v>D.14</v>
       </c>
       <c r="E173">
         <v>220</v>
@@ -10694,8 +10681,9 @@
       <c r="C174">
         <v>15</v>
       </c>
-      <c r="D174" t="s">
-        <v>210</v>
+      <c r="D174" t="str">
+        <f t="shared" si="2"/>
+        <v>D.15</v>
       </c>
       <c r="E174">
         <v>230</v>
@@ -10750,8 +10738,9 @@
       <c r="C175">
         <v>16</v>
       </c>
-      <c r="D175" t="s">
-        <v>211</v>
+      <c r="D175" t="str">
+        <f t="shared" si="2"/>
+        <v>D.16</v>
       </c>
       <c r="E175">
         <v>262</v>
@@ -11851,7 +11840,7 @@
         <v>43</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" ref="D195:D249" si="3">IF(ISBLANK(C195),B195,_xlfn.CONCAT(B195,".",C195))</f>
+        <f t="shared" ref="D195:D258" si="3">IF(ISBLANK(C195),B195,_xlfn.CONCAT(B195,".",C195))</f>
         <v>O</v>
       </c>
       <c r="E195">
@@ -12603,8 +12592,9 @@
       <c r="C210" s="4">
         <v>1</v>
       </c>
-      <c r="D210" s="4" t="s">
-        <v>49</v>
+      <c r="D210" t="str">
+        <f t="shared" si="3"/>
+        <v>E.1</v>
       </c>
       <c r="E210" s="4">
         <v>16</v>
@@ -12662,8 +12652,9 @@
       <c r="C211" s="4">
         <v>2</v>
       </c>
-      <c r="D211" s="4" t="s">
-        <v>53</v>
+      <c r="D211" t="str">
+        <f t="shared" si="3"/>
+        <v>E.2</v>
       </c>
       <c r="E211" s="4">
         <v>23</v>
@@ -12718,7 +12709,7 @@
       <c r="B212" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D212" s="4" t="str">
+      <c r="D212" t="str">
         <f t="shared" si="3"/>
         <v>R</v>
       </c>
@@ -12742,7 +12733,7 @@
       <c r="B213" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D213" s="4" t="str">
+      <c r="D213" t="str">
         <f t="shared" si="3"/>
         <v>Oi</v>
       </c>
@@ -12796,7 +12787,7 @@
       <c r="B214" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D214" s="4" t="str">
+      <c r="D214" t="str">
         <f t="shared" si="3"/>
         <v>Oe</v>
       </c>
@@ -13570,8 +13561,9 @@
       <c r="B228" t="s">
         <v>92</v>
       </c>
-      <c r="D228" s="3" t="s">
-        <v>92</v>
+      <c r="D228" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
       </c>
       <c r="E228">
         <v>12</v>
@@ -13626,8 +13618,9 @@
       <c r="B229" t="s">
         <v>60</v>
       </c>
-      <c r="D229" s="3" t="s">
-        <v>60</v>
+      <c r="D229" t="str">
+        <f t="shared" si="3"/>
+        <v>Bhs1</v>
       </c>
       <c r="E229">
         <v>17</v>
@@ -13682,8 +13675,9 @@
       <c r="B230" t="s">
         <v>62</v>
       </c>
-      <c r="D230" s="3" t="s">
-        <v>62</v>
+      <c r="D230" t="str">
+        <f t="shared" si="3"/>
+        <v>Bhs2</v>
       </c>
       <c r="E230">
         <v>20</v>
@@ -13738,8 +13732,9 @@
       <c r="C231">
         <v>1</v>
       </c>
-      <c r="D231" s="3" t="s">
-        <v>307</v>
+      <c r="D231" t="str">
+        <f t="shared" si="3"/>
+        <v>Bhs2.1</v>
       </c>
       <c r="E231">
         <v>20</v>
@@ -13797,8 +13792,9 @@
       <c r="C232">
         <v>2</v>
       </c>
-      <c r="D232" s="3" t="s">
-        <v>308</v>
+      <c r="D232" t="str">
+        <f t="shared" si="3"/>
+        <v>Bhs2.2</v>
       </c>
       <c r="E232">
         <v>27</v>
@@ -13856,8 +13852,9 @@
       <c r="C233">
         <v>1</v>
       </c>
-      <c r="D233" s="3" t="s">
-        <v>311</v>
+      <c r="D233" t="str">
+        <f t="shared" si="3"/>
+        <v>Bhs3.1</v>
       </c>
       <c r="E233">
         <v>34</v>
@@ -13918,8 +13915,9 @@
       <c r="C234">
         <v>2</v>
       </c>
-      <c r="D234" s="3" t="s">
-        <v>312</v>
+      <c r="D234" t="str">
+        <f t="shared" si="3"/>
+        <v>Bhs3.2</v>
       </c>
       <c r="E234">
         <v>41</v>
@@ -13977,8 +13975,12 @@
       <c r="B235" t="s">
         <v>65</v>
       </c>
-      <c r="D235" s="3" t="s">
-        <v>65</v>
+      <c r="C235">
+        <v>3</v>
+      </c>
+      <c r="D235" t="str">
+        <f t="shared" si="3"/>
+        <v>Bhs3.3</v>
       </c>
       <c r="E235">
         <v>34</v>
@@ -14807,8 +14809,9 @@
       <c r="C250">
         <v>1</v>
       </c>
-      <c r="D250" t="s">
-        <v>142</v>
+      <c r="D250" t="str">
+        <f t="shared" si="3"/>
+        <v>Bs.1</v>
       </c>
       <c r="E250">
         <v>24</v>
@@ -14869,8 +14872,9 @@
       <c r="C251">
         <v>2</v>
       </c>
-      <c r="D251" t="s">
-        <v>144</v>
+      <c r="D251" t="str">
+        <f t="shared" si="3"/>
+        <v>Bs.2</v>
       </c>
       <c r="E251">
         <v>33</v>
@@ -14931,8 +14935,9 @@
       <c r="C252">
         <v>3</v>
       </c>
-      <c r="D252" t="s">
-        <v>212</v>
+      <c r="D252" t="str">
+        <f t="shared" si="3"/>
+        <v>Bs.3</v>
       </c>
       <c r="E252">
         <v>43</v>
@@ -14993,8 +14998,9 @@
       <c r="C253">
         <v>1</v>
       </c>
-      <c r="D253" t="s">
-        <v>189</v>
+      <c r="D253" t="str">
+        <f t="shared" si="3"/>
+        <v>BC.1</v>
       </c>
       <c r="E253">
         <v>53</v>
@@ -15055,8 +15061,9 @@
       <c r="C254">
         <v>2</v>
       </c>
-      <c r="D254" t="s">
-        <v>190</v>
+      <c r="D254" t="str">
+        <f t="shared" si="3"/>
+        <v>BC.2</v>
       </c>
       <c r="E254">
         <v>62</v>
@@ -15117,8 +15124,9 @@
       <c r="C255">
         <v>1</v>
       </c>
-      <c r="D255" t="s">
-        <v>192</v>
+      <c r="D255" t="str">
+        <f t="shared" si="3"/>
+        <v>D.1</v>
       </c>
       <c r="E255">
         <v>82</v>
@@ -15182,8 +15190,9 @@
       <c r="C256">
         <v>2</v>
       </c>
-      <c r="D256" t="s">
-        <v>193</v>
+      <c r="D256" t="str">
+        <f t="shared" si="3"/>
+        <v>D.2</v>
       </c>
       <c r="E256">
         <v>100</v>
@@ -15247,8 +15256,9 @@
       <c r="C257">
         <v>3</v>
       </c>
-      <c r="D257" t="s">
-        <v>194</v>
+      <c r="D257" t="str">
+        <f t="shared" si="3"/>
+        <v>D.3</v>
       </c>
       <c r="E257">
         <v>110</v>
@@ -15309,8 +15319,9 @@
       <c r="C258">
         <v>4</v>
       </c>
-      <c r="D258" t="s">
-        <v>195</v>
+      <c r="D258" t="str">
+        <f t="shared" si="3"/>
+        <v>D.4</v>
       </c>
       <c r="E258">
         <v>125</v>
@@ -16335,51 +16346,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -16388,13 +16399,13 @@
         <v>43654</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="G2">
         <v>281621.03100000002</v>
@@ -16403,27 +16414,27 @@
         <v>4871253.1179999998</v>
       </c>
       <c r="I2" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J2" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K2" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="L2" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="M2" t="s">
         <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -16432,13 +16443,13 @@
         <v>43624</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F3" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="G3">
         <v>281611.74599999998</v>
@@ -16447,27 +16458,27 @@
         <v>4871245.68</v>
       </c>
       <c r="I3" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J3" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K3" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L3" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M3" t="s">
         <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -16476,13 +16487,13 @@
         <v>43633</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>281626.07500000001</v>
@@ -16494,24 +16505,24 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K4" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="L4" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="M4" t="s">
         <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -16520,13 +16531,13 @@
         <v>43350</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G5">
         <v>281617.42099999997</v>
@@ -16535,24 +16546,24 @@
         <v>4871242.8679999998</v>
       </c>
       <c r="I5" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J5" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K5" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="M5" t="s">
         <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -16561,13 +16572,13 @@
         <v>43633</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="G6">
         <v>281632.761</v>
@@ -16576,27 +16587,27 @@
         <v>4871213.6260000002</v>
       </c>
       <c r="I6" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J6" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K6" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="L6" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="M6" t="s">
         <v>79</v>
       </c>
       <c r="N6" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -16605,13 +16616,13 @@
         <v>43402</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E7" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F7" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="G7">
         <v>281641.48</v>
@@ -16623,24 +16634,24 @@
         <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K7" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="L7" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="M7" t="s">
         <v>79</v>
       </c>
       <c r="N7" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
         <v>91</v>
@@ -16649,38 +16660,38 @@
         <v>43741</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F8" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J8" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K8" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="L8" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="M8" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="N8" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B9" t="s">
         <v>100</v>
@@ -16689,13 +16700,13 @@
         <v>43633</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="F9" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="G9">
         <v>281664.00699999998</v>
@@ -16704,27 +16715,27 @@
         <v>4871152.392</v>
       </c>
       <c r="I9" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J9" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K9" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="L9" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
       </c>
       <c r="N9" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
         <v>106</v>
@@ -16733,38 +16744,38 @@
         <v>43647</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E10" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F10" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J10">
         <v>56.5</v>
       </c>
       <c r="K10" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="L10" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="M10" t="s">
         <v>79</v>
       </c>
       <c r="N10" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
         <v>118</v>
@@ -16773,38 +16784,38 @@
         <v>43643</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F11" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J11" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K11" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="L11" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="M11" t="s">
         <v>79</v>
       </c>
       <c r="N11" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
         <v>125</v>
@@ -16813,13 +16824,13 @@
         <v>43644</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F12" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="G12">
         <v>281667.50099999999</v>
@@ -16831,24 +16842,24 @@
         <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K12" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="L12" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="M12" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="N12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B13" t="s">
         <v>129</v>
@@ -16857,13 +16868,13 @@
         <v>43654</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F13" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="G13">
         <v>281671.92700000003</v>
@@ -16872,42 +16883,42 @@
         <v>4871119.1279999996</v>
       </c>
       <c r="I13" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J13" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K13" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="L13" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="M13" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="N13" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
         <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F14" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="G14">
         <v>281750.913</v>
@@ -16916,27 +16927,27 @@
         <v>4871279.0750000002</v>
       </c>
       <c r="I14" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J14" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K14" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L14" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M14" t="s">
         <v>40</v>
       </c>
       <c r="N14" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B15" t="s">
         <v>131</v>
@@ -16945,13 +16956,13 @@
         <v>43624</v>
       </c>
       <c r="D15" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E15" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F15" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="G15">
         <v>281771.02799999999</v>
@@ -16960,27 +16971,27 @@
         <v>4871268.2680000002</v>
       </c>
       <c r="I15" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J15" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K15" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L15" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
       </c>
       <c r="N15" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s">
         <v>132</v>
@@ -16989,13 +17000,13 @@
         <v>43634</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E16" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="F16" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G16">
         <v>281780.48300000001</v>
@@ -17004,27 +17015,27 @@
         <v>4871262.5379999997</v>
       </c>
       <c r="I16" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J16" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K16" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L16" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M16" t="s">
         <v>40</v>
       </c>
       <c r="N16" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
         <v>135</v>
@@ -17033,13 +17044,13 @@
         <v>43634</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E17" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F17" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G17">
         <v>281773.223</v>
@@ -17048,27 +17059,27 @@
         <v>4871260.216</v>
       </c>
       <c r="I17" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J17" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K17" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L17" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="M17" t="s">
         <v>40</v>
       </c>
       <c r="N17" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
         <v>137</v>
@@ -17077,13 +17088,13 @@
         <v>43634</v>
       </c>
       <c r="D18" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E18" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="F18" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="G18">
         <v>281788.58299999998</v>
@@ -17095,24 +17106,24 @@
         <v>41.5</v>
       </c>
       <c r="J18" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K18" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="L18" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="M18" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="N18" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s">
         <v>138</v>
@@ -17121,13 +17132,13 @@
         <v>43698</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E19" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F19" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="G19">
         <v>281779.36200000002</v>
@@ -17136,27 +17147,27 @@
         <v>4871195.9989999998</v>
       </c>
       <c r="I19" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J19" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="L19" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="M19" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="N19" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s">
         <v>140</v>
@@ -17165,13 +17176,13 @@
         <v>43635</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E20" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="F20" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="G20">
         <v>281790.61099999998</v>
@@ -17183,24 +17194,24 @@
         <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K20" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s">
         <v>79</v>
       </c>
       <c r="N20" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s">
         <v>141</v>
@@ -17209,13 +17220,13 @@
         <v>43649</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E21" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F21" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="G21">
         <v>281770.76699999999</v>
@@ -17224,27 +17235,27 @@
         <v>4871114.09</v>
       </c>
       <c r="I21" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J21">
         <v>62</v>
       </c>
       <c r="K21" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="L21" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="M21" t="s">
         <v>79</v>
       </c>
       <c r="N21" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s">
         <v>149</v>
@@ -17253,13 +17264,13 @@
         <v>43644</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E22" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F22" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="G22">
         <v>281769.12199999997</v>
@@ -17268,27 +17279,27 @@
         <v>4871108.6189999999</v>
       </c>
       <c r="I22" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s">
         <v>79</v>
       </c>
       <c r="N22" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s">
         <v>152</v>
@@ -17297,13 +17308,13 @@
         <v>43648</v>
       </c>
       <c r="D23" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E23" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F23" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="G23">
         <v>281800.74300000002</v>
@@ -17312,27 +17323,27 @@
         <v>4871175.7050000001</v>
       </c>
       <c r="I23" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J23" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s">
         <v>40</v>
       </c>
       <c r="N23" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s">
         <v>153</v>
@@ -17341,13 +17352,13 @@
         <v>43648</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E24" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F24" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="G24">
         <v>281783.26699999999</v>
@@ -17356,42 +17367,42 @@
         <v>4871110.1289999997</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="L24" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="N24" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2">
         <v>43655</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F25" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="G25">
         <v>281731.58600000001</v>
@@ -17400,42 +17411,42 @@
         <v>4871107.7240000004</v>
       </c>
       <c r="I25" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M25" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="N25" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B26" t="s">
         <v>154</v>
       </c>
       <c r="C26" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E26" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="G26">
         <v>281947.45899999997</v>
@@ -17444,27 +17455,27 @@
         <v>4870684.7319999998</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J26" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K26" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L26" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M26" t="s">
         <v>40</v>
       </c>
       <c r="N26" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B27" t="s">
         <v>155</v>
@@ -17473,13 +17484,13 @@
         <v>43624</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E27" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="G27">
         <v>281938.59999999998</v>
@@ -17488,27 +17499,27 @@
         <v>4870684.7460000003</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J27" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M27" t="s">
         <v>40</v>
       </c>
       <c r="N27" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s">
         <v>156</v>
@@ -17517,13 +17528,13 @@
         <v>43626</v>
       </c>
       <c r="D28" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E28" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G28">
         <v>281915.71600000001</v>
@@ -17532,27 +17543,27 @@
         <v>4870652.2369999997</v>
       </c>
       <c r="I28" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J28" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K28" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="M28" t="s">
         <v>40</v>
       </c>
       <c r="N28" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B29" t="s">
         <v>157</v>
@@ -17561,13 +17572,13 @@
         <v>43635</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E29" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G29">
         <v>281932.34399999998</v>
@@ -17579,24 +17590,24 @@
         <v>27</v>
       </c>
       <c r="J29" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K29" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="N29" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s">
         <v>161</v>
@@ -17605,13 +17616,13 @@
         <v>43983</v>
       </c>
       <c r="D30" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E30" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G30">
         <v>281966.91399999999</v>
@@ -17620,27 +17631,27 @@
         <v>4870651.2659999998</v>
       </c>
       <c r="I30" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J30" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K30" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="M30" t="s">
         <v>40</v>
       </c>
       <c r="N30" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B31" t="s">
         <v>163</v>
@@ -17649,13 +17660,13 @@
         <v>43626</v>
       </c>
       <c r="D31" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="E31" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="F31" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="G31">
         <v>281844.91700000002</v>
@@ -17664,27 +17675,27 @@
         <v>4870632.7980000004</v>
       </c>
       <c r="I31" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J31">
         <v>72</v>
       </c>
       <c r="K31" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s">
         <v>79</v>
       </c>
       <c r="N31" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B32" t="s">
         <v>166</v>
@@ -17693,13 +17704,13 @@
         <v>43639</v>
       </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E32" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F32" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="G32">
         <v>281869.72399999999</v>
@@ -17708,27 +17719,27 @@
         <v>4870640.5130000003</v>
       </c>
       <c r="I32" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J32">
         <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="L32" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="M32" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="N32" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B33" t="s">
         <v>168</v>
@@ -17737,13 +17748,13 @@
         <v>43984</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E33" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F33" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="G33">
         <v>281944.68400000001</v>
@@ -17752,27 +17763,27 @@
         <v>4870635.4539999999</v>
       </c>
       <c r="I33" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J33" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K33" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="L33" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="M33" t="s">
         <v>40</v>
       </c>
       <c r="N33" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B34" t="s">
         <v>172</v>
@@ -17781,13 +17792,13 @@
         <v>43628</v>
       </c>
       <c r="D34" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="E34" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="F34" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="G34">
         <v>281813.766</v>
@@ -17796,27 +17807,27 @@
         <v>4870628.1279999996</v>
       </c>
       <c r="I34" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J34" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K34" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L34" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M34" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="N34" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B35" t="s">
         <v>177</v>
@@ -17825,13 +17836,13 @@
         <v>43651</v>
       </c>
       <c r="D35" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E35" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F35" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="G35">
         <v>281812.55200000003</v>
@@ -17840,27 +17851,27 @@
         <v>4870608.91</v>
       </c>
       <c r="I35" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J35">
         <v>65</v>
       </c>
       <c r="K35" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s">
         <v>79</v>
       </c>
       <c r="N35" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B36" t="s">
         <v>181</v>
@@ -17869,13 +17880,13 @@
         <v>43639</v>
       </c>
       <c r="D36" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E36" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F36" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="G36">
         <v>281693.35100000002</v>
@@ -17887,24 +17898,24 @@
         <v>62</v>
       </c>
       <c r="J36" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K36" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="L36" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="M36" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="N36" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B37" t="s">
         <v>185</v>
@@ -17913,13 +17924,13 @@
         <v>43655</v>
       </c>
       <c r="D37" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E37" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F37" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="G37">
         <v>281756.73700000002</v>
@@ -17928,27 +17939,27 @@
         <v>4870600.7290000003</v>
       </c>
       <c r="I37" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J37" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K37" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L37" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M37" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="N37" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B38" t="s">
         <v>186</v>
@@ -17957,13 +17968,13 @@
         <v>43655</v>
       </c>
       <c r="D38" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E38" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="F38" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="G38">
         <v>281768.96500000003</v>
@@ -17972,22 +17983,22 @@
         <v>4870603.7439999999</v>
       </c>
       <c r="I38" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="J38" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K38" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M38" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="N38" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/hb_pedons_analysis_0426.xlsx
+++ b/data/raw/hb_pedons_analysis_0426.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab/Exchangeable/VT/Soil_Analyses/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1BEB3D-6428-644A-B87A-71E94DF88BC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBDC70F-FE94-AC4A-823E-6A991908AEAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="15820" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1734,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D276" sqref="D276"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/raw/hb_pedons_analysis_0426.xlsx
+++ b/data/raw/hb_pedons_analysis_0426.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab/Exchangeable/VT/Soil_Analyses/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBDC70F-FE94-AC4A-823E-6A991908AEAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9AB59E-1010-0443-B393-D1DCA3544DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15820" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="500" windowWidth="22680" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="horizon data" sheetId="1" r:id="rId1"/>
     <sheet name="pedon data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="281">
   <si>
     <t>pedon</t>
   </si>
@@ -253,9 +253,6 @@
     <t>gw</t>
   </si>
   <si>
-    <t>2mang</t>
-  </si>
-  <si>
     <t>gs</t>
   </si>
   <si>
@@ -268,9 +265,6 @@
     <t>gr</t>
   </si>
   <si>
-    <t>1mang</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -574,9 +568,6 @@
     <t>2mabk</t>
   </si>
   <si>
-    <t>2mapl</t>
-  </si>
-  <si>
     <t>86_5_W5.1</t>
   </si>
   <si>
@@ -881,6 +872,9 @@
   </si>
   <si>
     <t>Beech, white birch</t>
+  </si>
+  <si>
+    <t>1mabk</t>
   </si>
 </sst>
 </file>
@@ -1734,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD86"/>
+    <sheetView tabSelected="1" topLeftCell="I261" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q256" sqref="Q256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1749,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -3441,13 +3435,13 @@
         <v>56</v>
       </c>
       <c r="Q36" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="R36" t="s">
         <v>39</v>
       </c>
       <c r="S36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T36">
         <v>10</v>
@@ -3504,13 +3498,13 @@
         <v>56</v>
       </c>
       <c r="Q37" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="R37" t="s">
         <v>39</v>
       </c>
       <c r="S37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T37">
         <v>10</v>
@@ -3567,13 +3561,13 @@
         <v>56</v>
       </c>
       <c r="Q38" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="R38" t="s">
         <v>39</v>
       </c>
       <c r="S38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T38">
         <v>10</v>
@@ -3612,7 +3606,7 @@
         <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s">
         <v>64</v>
@@ -3624,16 +3618,16 @@
         <v>4</v>
       </c>
       <c r="L39" t="s">
+        <v>75</v>
+      </c>
+      <c r="O39" t="s">
         <v>76</v>
-      </c>
-      <c r="O39" t="s">
-        <v>77</v>
       </c>
       <c r="P39" t="s">
         <v>56</v>
       </c>
       <c r="Q39" t="s">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="R39" t="s">
         <v>59</v>
@@ -3678,7 +3672,7 @@
         <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s">
         <v>64</v>
@@ -3690,16 +3684,16 @@
         <v>4</v>
       </c>
       <c r="L40" t="s">
+        <v>75</v>
+      </c>
+      <c r="O40" t="s">
         <v>76</v>
-      </c>
-      <c r="O40" t="s">
-        <v>77</v>
       </c>
       <c r="P40" t="s">
         <v>56</v>
       </c>
       <c r="Q40" t="s">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="R40" t="s">
         <v>59</v>
@@ -3744,7 +3738,7 @@
         <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I41" t="s">
         <v>64</v>
@@ -3756,16 +3750,16 @@
         <v>4</v>
       </c>
       <c r="L41" t="s">
+        <v>75</v>
+      </c>
+      <c r="O41" t="s">
         <v>76</v>
-      </c>
-      <c r="O41" t="s">
-        <v>77</v>
       </c>
       <c r="P41" t="s">
         <v>56</v>
       </c>
       <c r="Q41" t="s">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="R41" t="s">
         <v>59</v>
@@ -3791,7 +3785,7 @@
         <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3810,10 +3804,10 @@
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J42">
         <v>4</v>
@@ -3822,22 +3816,22 @@
         <v>3</v>
       </c>
       <c r="L42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P42" t="s">
         <v>56</v>
       </c>
       <c r="Q42" t="s">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="R42" t="s">
         <v>59</v>
       </c>
       <c r="S42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T42">
         <v>20</v>
@@ -3854,7 +3848,7 @@
         <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -3873,10 +3867,10 @@
         <v>6</v>
       </c>
       <c r="H43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J43">
         <v>4</v>
@@ -3885,22 +3879,22 @@
         <v>3</v>
       </c>
       <c r="L43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P43" t="s">
         <v>56</v>
       </c>
       <c r="Q43" t="s">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="R43" t="s">
         <v>59</v>
       </c>
       <c r="S43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T43">
         <v>20</v>
@@ -3917,7 +3911,7 @@
         <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3936,10 +3930,10 @@
         <v>4</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -3951,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P44" t="s">
         <v>56</v>
       </c>
       <c r="Q44" t="s">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="R44" t="s">
         <v>59</v>
@@ -3980,7 +3974,7 @@
         <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -3999,10 +3993,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J45">
         <v>5</v>
@@ -4034,7 +4028,7 @@
         <v>69</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -4061,7 +4055,7 @@
         <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -4080,7 +4074,7 @@
         <v>39</v>
       </c>
       <c r="P47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V47" t="s">
         <v>32</v>
@@ -4091,7 +4085,7 @@
         <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -4110,10 +4104,10 @@
         <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J48">
         <v>6</v>
@@ -4125,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V48" t="s">
         <v>32</v>
@@ -4136,7 +4130,7 @@
         <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -4155,10 +4149,10 @@
         <v>5</v>
       </c>
       <c r="H49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J49">
         <v>5</v>
@@ -4170,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V49" t="s">
         <v>32</v>
@@ -4181,7 +4175,7 @@
         <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -4200,10 +4194,10 @@
         <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4215,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="P50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V50" t="s">
         <v>32</v>
@@ -4226,7 +4220,7 @@
         <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -4245,10 +4239,10 @@
         <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J51">
         <v>5</v>
@@ -4260,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V51" t="s">
         <v>32</v>
@@ -4271,7 +4265,7 @@
         <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C52">
         <v>9</v>
@@ -4290,10 +4284,10 @@
         <v>7</v>
       </c>
       <c r="H52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J52">
         <v>5</v>
@@ -4305,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V52" t="s">
         <v>32</v>
@@ -4316,7 +4310,7 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C53">
         <v>10</v>
@@ -4358,7 +4352,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
         <v>23</v>
@@ -4394,7 +4388,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
         <v>27</v>
@@ -4436,7 +4430,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
         <v>28</v>
@@ -4481,10 +4475,10 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -4500,7 +4494,7 @@
         <v>7.5</v>
       </c>
       <c r="H57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I57" t="s">
         <v>35</v>
@@ -4538,7 +4532,7 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -4557,7 +4551,7 @@
         <v>22</v>
       </c>
       <c r="H58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I58" t="s">
         <v>35</v>
@@ -4595,7 +4589,7 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
@@ -4638,7 +4632,7 @@
         <v>39</v>
       </c>
       <c r="S59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T59">
         <v>1</v>
@@ -4652,7 +4646,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
@@ -4671,7 +4665,7 @@
         <v>15</v>
       </c>
       <c r="H60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s">
         <v>25</v>
@@ -4683,7 +4677,7 @@
         <v>2</v>
       </c>
       <c r="L60" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P60" t="s">
         <v>37</v>
@@ -4709,10 +4703,10 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
@@ -4728,7 +4722,7 @@
         <v>16</v>
       </c>
       <c r="H61" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I61" t="s">
         <v>35</v>
@@ -4749,7 +4743,7 @@
         <v>38</v>
       </c>
       <c r="R61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T61">
         <v>10</v>
@@ -4763,7 +4757,7 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
@@ -4799,7 +4793,7 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
@@ -4835,7 +4829,7 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
         <v>28</v>
@@ -4875,7 +4869,7 @@
         <v>39</v>
       </c>
       <c r="S64" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T64">
         <v>2</v>
@@ -4889,7 +4883,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
         <v>33</v>
@@ -4908,7 +4902,7 @@
         <v>2.5</v>
       </c>
       <c r="H65" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I65" t="s">
         <v>64</v>
@@ -4932,7 +4926,7 @@
         <v>39</v>
       </c>
       <c r="S65" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T65">
         <v>2</v>
@@ -4949,7 +4943,7 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -4968,7 +4962,7 @@
         <v>4.5</v>
       </c>
       <c r="H66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I66" t="s">
         <v>25</v>
@@ -5009,7 +5003,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
         <v>62</v>
@@ -5052,7 +5046,7 @@
         <v>39</v>
       </c>
       <c r="S67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T67">
         <v>10</v>
@@ -5069,10 +5063,10 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
@@ -5088,7 +5082,7 @@
         <v>9</v>
       </c>
       <c r="H68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I68" t="s">
         <v>64</v>
@@ -5129,7 +5123,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
@@ -5148,7 +5142,7 @@
         <v>5.5</v>
       </c>
       <c r="H69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I69" t="s">
         <v>64</v>
@@ -5186,7 +5180,7 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B70" t="s">
         <v>23</v>
@@ -5222,7 +5216,7 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
         <v>27</v>
@@ -5264,7 +5258,7 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
         <v>28</v>
@@ -5312,7 +5306,7 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
         <v>33</v>
@@ -5331,7 +5325,7 @@
         <v>8</v>
       </c>
       <c r="H73" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I73" t="s">
         <v>35</v>
@@ -5343,7 +5337,7 @@
         <v>2</v>
       </c>
       <c r="L73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P73" t="s">
         <v>56</v>
@@ -5355,7 +5349,7 @@
         <v>39</v>
       </c>
       <c r="S73" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T73">
         <v>2</v>
@@ -5372,7 +5366,7 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
         <v>60</v>
@@ -5391,7 +5385,7 @@
         <v>8.5</v>
       </c>
       <c r="H74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I74" t="s">
         <v>25</v>
@@ -5415,7 +5409,7 @@
         <v>39</v>
       </c>
       <c r="S74" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T74">
         <v>2</v>
@@ -5432,7 +5426,7 @@
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
         <v>62</v>
@@ -5495,7 +5489,7 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
         <v>62</v>
@@ -5558,10 +5552,10 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -5580,7 +5574,7 @@
         <v>7</v>
       </c>
       <c r="H77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I77" t="s">
         <v>64</v>
@@ -5604,7 +5598,7 @@
         <v>39</v>
       </c>
       <c r="S77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T77">
         <v>2</v>
@@ -5621,10 +5615,10 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -5643,7 +5637,7 @@
         <v>6.5</v>
       </c>
       <c r="H78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I78" t="s">
         <v>64</v>
@@ -5667,7 +5661,7 @@
         <v>39</v>
       </c>
       <c r="S78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T78">
         <v>2</v>
@@ -5684,7 +5678,7 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s">
         <v>67</v>
@@ -5703,7 +5697,7 @@
         <v>9.5</v>
       </c>
       <c r="H79" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I79" t="s">
         <v>64</v>
@@ -5727,7 +5721,7 @@
         <v>39</v>
       </c>
       <c r="S79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T79">
         <v>2</v>
@@ -5744,10 +5738,10 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
@@ -5763,10 +5757,10 @@
         <v>7.5</v>
       </c>
       <c r="H80" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J80">
         <v>5</v>
@@ -5781,13 +5775,13 @@
         <v>56</v>
       </c>
       <c r="Q80" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T80">
         <v>10</v>
@@ -5801,10 +5795,10 @@
     </row>
     <row r="81" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C81" s="4">
         <v>1</v>
@@ -5823,10 +5817,10 @@
         <v>8.5</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J81" s="4">
         <v>5</v>
@@ -5838,13 +5832,13 @@
         <v>0</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P81" s="4" t="s">
         <v>56</v>
       </c>
       <c r="Q81" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R81" s="4" t="s">
         <v>59</v>
@@ -5861,10 +5855,10 @@
     </row>
     <row r="82" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C82" s="4">
         <v>2</v>
@@ -5883,10 +5877,10 @@
         <v>8</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J82" s="4">
         <v>5</v>
@@ -5898,13 +5892,13 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P82" s="4" t="s">
         <v>56</v>
       </c>
       <c r="Q82" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R82" s="4" t="s">
         <v>59</v>
@@ -5924,10 +5918,10 @@
     </row>
     <row r="83" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C83" s="4">
         <v>1</v>
@@ -5946,10 +5940,10 @@
         <v>7</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J83" s="4">
         <v>4</v>
@@ -5961,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P83" s="4" t="s">
         <v>56</v>
@@ -5978,10 +5972,10 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -6000,10 +5994,10 @@
         <v>16</v>
       </c>
       <c r="H84" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I84" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J84">
         <v>4</v>
@@ -6015,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P84" t="s">
         <v>56</v>
@@ -6032,10 +6026,10 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -6054,10 +6048,10 @@
         <v>8</v>
       </c>
       <c r="H85" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J85">
         <v>5</v>
@@ -6069,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="P85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T85">
         <v>0</v>
@@ -6083,10 +6077,10 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -6105,10 +6099,10 @@
         <v>8.5</v>
       </c>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I86" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J86">
         <v>5</v>
@@ -6120,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="P86" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T86">
         <v>0</v>
@@ -6137,10 +6131,10 @@
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -6159,10 +6153,10 @@
         <v>5.5</v>
       </c>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I87" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J87">
         <v>5</v>
@@ -6174,10 +6168,10 @@
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P87" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -6191,10 +6185,10 @@
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C88">
         <v>6</v>
@@ -6213,10 +6207,10 @@
         <v>5</v>
       </c>
       <c r="H88" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I88" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J88">
         <v>4</v>
@@ -6228,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="P88" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -6242,10 +6236,10 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C89">
         <v>7</v>
@@ -6264,10 +6258,10 @@
         <v>5</v>
       </c>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I89" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J89">
         <v>5</v>
@@ -6279,10 +6273,10 @@
         <v>0</v>
       </c>
       <c r="O89" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -6296,10 +6290,10 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C90">
         <v>8</v>
@@ -6323,10 +6317,10 @@
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C91">
         <v>9</v>
@@ -6353,7 +6347,7 @@
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B92" t="s">
         <v>23</v>
@@ -6389,7 +6383,7 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B93" t="s">
         <v>27</v>
@@ -6425,7 +6419,7 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
         <v>28</v>
@@ -6476,7 +6470,7 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B95" t="s">
         <v>33</v>
@@ -6495,7 +6489,7 @@
         <v>5</v>
       </c>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I95" t="s">
         <v>35</v>
@@ -6507,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="L95" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P95" t="s">
         <v>56</v>
@@ -6533,10 +6527,10 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" t="s">
         <v>118</v>
-      </c>
-      <c r="B96" t="s">
-        <v>120</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="1"/>
@@ -6552,7 +6546,7 @@
         <v>4</v>
       </c>
       <c r="H96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I96" t="s">
         <v>25</v>
@@ -6576,7 +6570,7 @@
         <v>39</v>
       </c>
       <c r="S96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T96">
         <v>2</v>
@@ -6590,10 +6584,10 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="1"/>
@@ -6621,7 +6615,7 @@
         <v>3</v>
       </c>
       <c r="L97" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P97" t="s">
         <v>37</v>
@@ -6647,7 +6641,7 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B98" t="s">
         <v>67</v>
@@ -6666,7 +6660,7 @@
         <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I98" t="s">
         <v>64</v>
@@ -6678,7 +6672,7 @@
         <v>3</v>
       </c>
       <c r="L98" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P98" t="s">
         <v>37</v>
@@ -6704,10 +6698,10 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="1"/>
@@ -6723,10 +6717,10 @@
         <v>6</v>
       </c>
       <c r="H99" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J99">
         <v>4</v>
@@ -6741,7 +6735,7 @@
         <v>56</v>
       </c>
       <c r="Q99" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R99" t="s">
         <v>39</v>
@@ -6758,7 +6752,7 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B100" t="s">
         <v>23</v>
@@ -6794,7 +6788,7 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B101" t="s">
         <v>27</v>
@@ -6830,7 +6824,7 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B102" t="s">
         <v>28</v>
@@ -6881,10 +6875,10 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="1"/>
@@ -6900,7 +6894,7 @@
         <v>29</v>
       </c>
       <c r="H103" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I103" t="s">
         <v>35</v>
@@ -6938,10 +6932,10 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B104" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="1"/>
@@ -6957,7 +6951,7 @@
         <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I104" t="s">
         <v>64</v>
@@ -6995,10 +6989,10 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="1"/>
@@ -7014,7 +7008,7 @@
         <v>13</v>
       </c>
       <c r="H105" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I105" t="s">
         <v>64</v>
@@ -7032,7 +7026,7 @@
         <v>37</v>
       </c>
       <c r="Q105" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R105" t="s">
         <v>39</v>
@@ -7049,7 +7043,7 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B106" t="s">
         <v>23</v>
@@ -7085,7 +7079,7 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B107" t="s">
         <v>27</v>
@@ -7121,7 +7115,7 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B108" t="s">
         <v>28</v>
@@ -7140,7 +7134,7 @@
         <v>5</v>
       </c>
       <c r="H108" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I108" t="s">
         <v>25</v>
@@ -7172,10 +7166,10 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="1"/>
@@ -7209,13 +7203,13 @@
         <v>37</v>
       </c>
       <c r="Q109" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R109" t="s">
         <v>39</v>
       </c>
       <c r="S109" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T109">
         <v>2</v>
@@ -7229,10 +7223,10 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="1"/>
@@ -7283,7 +7277,7 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B111" t="s">
         <v>43</v>
@@ -7313,7 +7307,7 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B112" t="s">
         <v>43</v>
@@ -7349,7 +7343,7 @@
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B113" t="s">
         <v>40</v>
@@ -7373,7 +7367,7 @@
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B114" t="s">
         <v>23</v>
@@ -7409,7 +7403,7 @@
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B115" t="s">
         <v>27</v>
@@ -7445,7 +7439,7 @@
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B116" t="s">
         <v>28</v>
@@ -7479,16 +7473,16 @@
         <v>0</v>
       </c>
       <c r="P116" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q116" t="s">
         <v>29</v>
       </c>
       <c r="R116" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S116" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T116">
         <v>0</v>
@@ -7505,7 +7499,7 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B117" t="s">
         <v>33</v>
@@ -7524,7 +7518,7 @@
         <v>20</v>
       </c>
       <c r="H117" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I117" t="s">
         <v>25</v>
@@ -7548,7 +7542,7 @@
         <v>39</v>
       </c>
       <c r="S117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T117">
         <v>5</v>
@@ -7565,7 +7559,7 @@
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B118" t="s">
         <v>40</v>
@@ -7589,7 +7583,7 @@
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B119" t="s">
         <v>23</v>
@@ -7620,16 +7614,16 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q119" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R119" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S119" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V119" t="s">
         <v>32</v>
@@ -7637,7 +7631,7 @@
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B120" t="s">
         <v>27</v>
@@ -7668,16 +7662,16 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q120" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R120" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S120" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V120" t="s">
         <v>32</v>
@@ -7685,7 +7679,7 @@
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B121" t="s">
         <v>28</v>
@@ -7719,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="P121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q121" t="s">
         <v>29</v>
@@ -7745,7 +7739,7 @@
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B122" t="s">
         <v>49</v>
@@ -7767,7 +7761,7 @@
         <v>7</v>
       </c>
       <c r="H122" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I122" t="s">
         <v>25</v>
@@ -7797,7 +7791,7 @@
         <v>2</v>
       </c>
       <c r="U122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V122" t="s">
         <v>32</v>
@@ -7808,7 +7802,7 @@
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B123" t="s">
         <v>49</v>
@@ -7830,7 +7824,7 @@
         <v>6.5</v>
       </c>
       <c r="H123" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I123" t="s">
         <v>25</v>
@@ -7860,7 +7854,7 @@
         <v>2</v>
       </c>
       <c r="U123" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V123" t="s">
         <v>32</v>
@@ -7871,7 +7865,7 @@
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B124" t="s">
         <v>53</v>
@@ -7914,13 +7908,13 @@
         <v>39</v>
       </c>
       <c r="S124" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T124">
         <v>2</v>
       </c>
       <c r="U124" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V124" t="s">
         <v>32</v>
@@ -7931,7 +7925,7 @@
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B125" t="s">
         <v>40</v>
@@ -7955,7 +7949,7 @@
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B126" t="s">
         <v>23</v>
@@ -7994,7 +7988,7 @@
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B127" t="s">
         <v>27</v>
@@ -8033,7 +8027,7 @@
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B128" t="s">
         <v>28</v>
@@ -8067,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="P128" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q128" t="s">
         <v>29</v>
       </c>
       <c r="R128" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S128" t="s">
         <v>30</v>
@@ -8093,7 +8087,7 @@
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B129" t="s">
         <v>60</v>
@@ -8124,10 +8118,10 @@
         <v>1</v>
       </c>
       <c r="L129" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O129" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P129" t="s">
         <v>37</v>
@@ -8139,7 +8133,7 @@
         <v>39</v>
       </c>
       <c r="S129" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T129">
         <v>20</v>
@@ -8156,7 +8150,7 @@
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B130" t="s">
         <v>62</v>
@@ -8190,25 +8184,25 @@
         <v>0</v>
       </c>
       <c r="O130" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P130" t="s">
         <v>37</v>
       </c>
       <c r="Q130" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R130" t="s">
         <v>39</v>
       </c>
       <c r="S130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T130">
         <v>50</v>
       </c>
       <c r="U130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V130" t="s">
         <v>32</v>
@@ -8219,7 +8213,7 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B131" t="s">
         <v>40</v>
@@ -8243,7 +8237,7 @@
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B132" t="s">
         <v>23</v>
@@ -8274,22 +8268,22 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q132" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R132" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S132" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T132">
         <v>0</v>
       </c>
       <c r="U132" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V132" t="s">
         <v>32</v>
@@ -8297,7 +8291,7 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B133" t="s">
         <v>27</v>
@@ -8328,22 +8322,22 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T133">
         <v>0</v>
       </c>
       <c r="U133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V133" t="s">
         <v>32</v>
@@ -8351,7 +8345,7 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B134" t="s">
         <v>28</v>
@@ -8370,7 +8364,7 @@
         <v>5</v>
       </c>
       <c r="H134" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I134" t="s">
         <v>64</v>
@@ -8385,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="P134" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q134" t="s">
         <v>29</v>
@@ -8411,7 +8405,7 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B135" t="s">
         <v>33</v>
@@ -8430,7 +8424,7 @@
         <v>6</v>
       </c>
       <c r="H135" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I135" t="s">
         <v>25</v>
@@ -8460,7 +8454,7 @@
         <v>5</v>
       </c>
       <c r="U135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V135" t="s">
         <v>32</v>
@@ -8471,7 +8465,7 @@
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
         <v>60</v>
@@ -8490,7 +8484,7 @@
         <v>5</v>
       </c>
       <c r="H136" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I136" t="s">
         <v>35</v>
@@ -8502,7 +8496,7 @@
         <v>1</v>
       </c>
       <c r="L136" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P136" t="s">
         <v>37</v>
@@ -8531,7 +8525,7 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>62</v>
@@ -8577,7 +8571,7 @@
         <v>39</v>
       </c>
       <c r="S137" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T137">
         <v>10</v>
@@ -8594,7 +8588,7 @@
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
         <v>62</v>
@@ -8640,7 +8634,7 @@
         <v>39</v>
       </c>
       <c r="S138" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T138">
         <v>10</v>
@@ -8657,7 +8651,7 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B139" t="s">
         <v>62</v>
@@ -8703,7 +8697,7 @@
         <v>39</v>
       </c>
       <c r="S139" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T139">
         <v>10</v>
@@ -8720,7 +8714,7 @@
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
         <v>67</v>
@@ -8742,7 +8736,7 @@
         <v>9</v>
       </c>
       <c r="H140" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I140" t="s">
         <v>64</v>
@@ -8754,7 +8748,7 @@
         <v>4</v>
       </c>
       <c r="L140" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P140" t="s">
         <v>56</v>
@@ -8766,13 +8760,13 @@
         <v>39</v>
       </c>
       <c r="S140" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T140">
         <v>15</v>
       </c>
       <c r="U140" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V140" t="s">
         <v>32</v>
@@ -8783,7 +8777,7 @@
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B141" t="s">
         <v>67</v>
@@ -8805,7 +8799,7 @@
         <v>20</v>
       </c>
       <c r="H141" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I141" t="s">
         <v>64</v>
@@ -8817,7 +8811,7 @@
         <v>4</v>
       </c>
       <c r="L141" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P141" t="s">
         <v>56</v>
@@ -8829,13 +8823,13 @@
         <v>39</v>
       </c>
       <c r="S141" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T141">
         <v>15</v>
       </c>
       <c r="U141" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V141" t="s">
         <v>32</v>
@@ -8846,10 +8840,10 @@
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B142" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -8876,10 +8870,10 @@
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B143" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -8906,7 +8900,7 @@
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B144" t="s">
         <v>23</v>
@@ -8937,22 +8931,22 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q144" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R144" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S144" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T144">
         <v>0</v>
       </c>
       <c r="U144" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V144" t="s">
         <v>26</v>
@@ -8960,7 +8954,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B145" t="s">
         <v>27</v>
@@ -8991,22 +8985,22 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q145" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R145" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S145" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T145">
         <v>0</v>
       </c>
       <c r="U145" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V145" t="s">
         <v>26</v>
@@ -9014,7 +9008,7 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B146" t="s">
         <v>28</v>
@@ -9033,7 +9027,7 @@
         <v>5</v>
       </c>
       <c r="H146" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I146" t="s">
         <v>35</v>
@@ -9048,13 +9042,13 @@
         <v>0</v>
       </c>
       <c r="P146" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q146" t="s">
         <v>46</v>
       </c>
       <c r="R146" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S146" t="s">
         <v>47</v>
@@ -9071,10 +9065,10 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B147" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="2"/>
@@ -9090,7 +9084,7 @@
         <v>17</v>
       </c>
       <c r="H147" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I147" t="s">
         <v>64</v>
@@ -9131,10 +9125,10 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="2"/>
@@ -9150,7 +9144,7 @@
         <v>31</v>
       </c>
       <c r="H148" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I148" t="s">
         <v>64</v>
@@ -9191,7 +9185,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B149" t="s">
         <v>67</v>
@@ -9210,7 +9204,7 @@
         <v>9</v>
       </c>
       <c r="H149" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I149" t="s">
         <v>64</v>
@@ -9228,19 +9222,19 @@
         <v>56</v>
       </c>
       <c r="Q149" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R149" t="s">
         <v>39</v>
       </c>
       <c r="S149" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T149">
         <v>5</v>
       </c>
       <c r="U149" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V149" t="s">
         <v>32</v>
@@ -9248,7 +9242,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B150" t="s">
         <v>23</v>
@@ -9279,19 +9273,19 @@
         <v>1</v>
       </c>
       <c r="Q150" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R150" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S150" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T150">
         <v>0</v>
       </c>
       <c r="U150" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V150" t="s">
         <v>32</v>
@@ -9299,7 +9293,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B151" t="s">
         <v>27</v>
@@ -9330,19 +9324,19 @@
         <v>1</v>
       </c>
       <c r="Q151" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R151" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S151" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T151">
         <v>0</v>
       </c>
       <c r="U151" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V151" t="s">
         <v>32</v>
@@ -9350,7 +9344,7 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B152" t="s">
         <v>28</v>
@@ -9384,16 +9378,16 @@
         <v>29</v>
       </c>
       <c r="R152" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S152" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T152">
         <v>0</v>
       </c>
       <c r="U152" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V152" t="s">
         <v>32</v>
@@ -9404,7 +9398,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B153" t="s">
         <v>33</v>
@@ -9447,7 +9441,7 @@
         <v>39</v>
       </c>
       <c r="S153" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T153">
         <v>2</v>
@@ -9464,10 +9458,10 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B154" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="2"/>
@@ -9483,7 +9477,7 @@
         <v>5</v>
       </c>
       <c r="H154" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I154" t="s">
         <v>35</v>
@@ -9507,7 +9501,7 @@
         <v>39</v>
       </c>
       <c r="S154" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T154">
         <v>5</v>
@@ -9524,10 +9518,10 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B155" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="2"/>
@@ -9543,7 +9537,7 @@
         <v>5</v>
       </c>
       <c r="H155" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I155" t="s">
         <v>35</v>
@@ -9555,7 +9549,7 @@
         <v>4</v>
       </c>
       <c r="L155" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P155" t="s">
         <v>37</v>
@@ -9564,16 +9558,16 @@
         <v>38</v>
       </c>
       <c r="R155" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S155" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T155">
         <v>10</v>
       </c>
       <c r="U155" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V155" t="s">
         <v>32</v>
@@ -9584,10 +9578,10 @@
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B156" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -9636,7 +9630,7 @@
         <v>5</v>
       </c>
       <c r="U156" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V156" t="s">
         <v>32</v>
@@ -9647,10 +9641,10 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B157" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C157">
         <v>2</v>
@@ -9699,7 +9693,7 @@
         <v>5</v>
       </c>
       <c r="U157" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V157" t="s">
         <v>32</v>
@@ -9710,7 +9704,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B158" t="s">
         <v>67</v>
@@ -9744,7 +9738,7 @@
         <v>4</v>
       </c>
       <c r="L158" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P158" t="s">
         <v>37</v>
@@ -9756,13 +9750,13 @@
         <v>39</v>
       </c>
       <c r="S158" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T158">
         <v>25</v>
       </c>
       <c r="U158" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V158" t="s">
         <v>32</v>
@@ -9773,7 +9767,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B159" t="s">
         <v>67</v>
@@ -9807,7 +9801,7 @@
         <v>4</v>
       </c>
       <c r="L159" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P159" t="s">
         <v>37</v>
@@ -9819,13 +9813,13 @@
         <v>39</v>
       </c>
       <c r="S159" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T159">
         <v>25</v>
       </c>
       <c r="U159" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V159" t="s">
         <v>32</v>
@@ -9836,10 +9830,10 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -9858,7 +9852,7 @@
         <v>10</v>
       </c>
       <c r="H160" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I160" t="s">
         <v>64</v>
@@ -9873,22 +9867,22 @@
         <v>0</v>
       </c>
       <c r="O160" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P160" t="s">
         <v>56</v>
       </c>
       <c r="Q160" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R160" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S160" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U160" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V160" t="s">
         <v>32</v>
@@ -9896,10 +9890,10 @@
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B161" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C161">
         <v>2</v>
@@ -9918,7 +9912,7 @@
         <v>10</v>
       </c>
       <c r="H161" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I161" t="s">
         <v>64</v>
@@ -9933,22 +9927,22 @@
         <v>0</v>
       </c>
       <c r="O161" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P161" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q161" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R161" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S161" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U161" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V161" t="s">
         <v>32</v>
@@ -9956,10 +9950,10 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B162" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C162">
         <v>3</v>
@@ -9978,7 +9972,7 @@
         <v>2</v>
       </c>
       <c r="H162" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I162" t="s">
         <v>64</v>
@@ -9993,22 +9987,22 @@
         <v>0</v>
       </c>
       <c r="O162" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P162" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q162" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R162" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S162" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U162" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V162" t="s">
         <v>32</v>
@@ -10019,10 +10013,10 @@
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B163" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C163">
         <v>4</v>
@@ -10041,7 +10035,7 @@
         <v>10</v>
       </c>
       <c r="H163" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I163" t="s">
         <v>64</v>
@@ -10056,22 +10050,22 @@
         <v>0</v>
       </c>
       <c r="O163" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P163" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q163" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R163" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S163" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U163" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V163" t="s">
         <v>32</v>
@@ -10079,10 +10073,10 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B164" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C164">
         <v>5</v>
@@ -10101,7 +10095,7 @@
         <v>8</v>
       </c>
       <c r="H164" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I164" t="s">
         <v>64</v>
@@ -10119,16 +10113,16 @@
         <v>56</v>
       </c>
       <c r="Q164" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R164" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S164" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U164" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V164" t="s">
         <v>32</v>
@@ -10136,10 +10130,10 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B165" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C165">
         <v>6</v>
@@ -10158,7 +10152,7 @@
         <v>10</v>
       </c>
       <c r="H165" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I165" t="s">
         <v>64</v>
@@ -10173,19 +10167,19 @@
         <v>0</v>
       </c>
       <c r="P165" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q165" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R165" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S165" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U165" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V165" t="s">
         <v>32</v>
@@ -10196,10 +10190,10 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B166" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C166">
         <v>7</v>
@@ -10218,7 +10212,7 @@
         <v>11</v>
       </c>
       <c r="H166" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I166" t="s">
         <v>64</v>
@@ -10233,22 +10227,22 @@
         <v>0</v>
       </c>
       <c r="O166" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P166" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q166" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R166" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S166" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U166" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V166" t="s">
         <v>32</v>
@@ -10256,10 +10250,10 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B167" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C167">
         <v>8</v>
@@ -10278,7 +10272,7 @@
         <v>5</v>
       </c>
       <c r="H167" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I167" t="s">
         <v>64</v>
@@ -10293,22 +10287,22 @@
         <v>0</v>
       </c>
       <c r="O167" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P167" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q167" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R167" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S167" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U167" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V167" t="s">
         <v>32</v>
@@ -10319,10 +10313,10 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B168" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C168">
         <v>9</v>
@@ -10341,10 +10335,10 @@
         <v>12</v>
       </c>
       <c r="H168" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I168" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J168">
         <v>6</v>
@@ -10356,19 +10350,19 @@
         <v>0</v>
       </c>
       <c r="P168" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q168" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R168" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S168" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U168" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V168" t="s">
         <v>32</v>
@@ -10379,10 +10373,10 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B169" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C169">
         <v>10</v>
@@ -10401,10 +10395,10 @@
         <v>6</v>
       </c>
       <c r="H169" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I169" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J169">
         <v>6</v>
@@ -10416,22 +10410,22 @@
         <v>0</v>
       </c>
       <c r="O169" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P169" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q169" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R169" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S169" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U169" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V169" t="s">
         <v>32</v>
@@ -10439,10 +10433,10 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B170" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C170">
         <v>11</v>
@@ -10461,10 +10455,10 @@
         <v>5</v>
       </c>
       <c r="H170" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I170" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J170">
         <v>5</v>
@@ -10476,22 +10470,22 @@
         <v>0</v>
       </c>
       <c r="O170" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P170" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q170" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R170" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S170" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U170" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V170" t="s">
         <v>32</v>
@@ -10499,10 +10493,10 @@
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B171" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C171">
         <v>12</v>
@@ -10521,10 +10515,10 @@
         <v>5</v>
       </c>
       <c r="H171" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I171" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J171">
         <v>6</v>
@@ -10536,19 +10530,19 @@
         <v>0</v>
       </c>
       <c r="P171" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q171" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R171" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S171" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U171" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V171" t="s">
         <v>32</v>
@@ -10556,10 +10550,10 @@
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B172" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C172">
         <v>13</v>
@@ -10578,10 +10572,10 @@
         <v>10</v>
       </c>
       <c r="H172" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I172" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J172">
         <v>6</v>
@@ -10593,22 +10587,22 @@
         <v>0</v>
       </c>
       <c r="O172" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P172" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q172" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R172" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S172" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U172" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V172" t="s">
         <v>32</v>
@@ -10616,10 +10610,10 @@
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B173" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C173">
         <v>14</v>
@@ -10638,10 +10632,10 @@
         <v>10</v>
       </c>
       <c r="H173" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I173" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J173">
         <v>5</v>
@@ -10656,16 +10650,16 @@
         <v>56</v>
       </c>
       <c r="Q173" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R173" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S173" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U173" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V173" t="s">
         <v>32</v>
@@ -10673,10 +10667,10 @@
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B174" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C174">
         <v>15</v>
@@ -10695,10 +10689,10 @@
         <v>32</v>
       </c>
       <c r="H174" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I174" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J174">
         <v>6</v>
@@ -10710,19 +10704,19 @@
         <v>0</v>
       </c>
       <c r="P174" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q174" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R174" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S174" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U174" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V174" t="s">
         <v>32</v>
@@ -10730,10 +10724,10 @@
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B175" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C175">
         <v>16</v>
@@ -10752,10 +10746,10 @@
         <v>29</v>
       </c>
       <c r="H175" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I175" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J175">
         <v>6</v>
@@ -10767,19 +10761,19 @@
         <v>0</v>
       </c>
       <c r="P175" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q175" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R175" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S175" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U175" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V175" t="s">
         <v>32</v>
@@ -10790,7 +10784,7 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B176" t="s">
         <v>23</v>
@@ -10821,22 +10815,22 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q176" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R176" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S176" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T176">
         <v>0</v>
       </c>
       <c r="U176" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V176" t="s">
         <v>32</v>
@@ -10844,7 +10838,7 @@
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B177" t="s">
         <v>27</v>
@@ -10875,22 +10869,22 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q177" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R177" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S177" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T177">
         <v>0</v>
       </c>
       <c r="U177" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V177" t="s">
         <v>32</v>
@@ -10898,7 +10892,7 @@
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B178" t="s">
         <v>28</v>
@@ -10932,13 +10926,13 @@
         <v>0</v>
       </c>
       <c r="P178" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q178" t="s">
         <v>29</v>
       </c>
       <c r="R178" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S178" t="s">
         <v>30</v>
@@ -10955,7 +10949,7 @@
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B179" t="s">
         <v>33</v>
@@ -10986,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="L179" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P179" t="s">
         <v>56</v>
@@ -11012,10 +11006,10 @@
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B180" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="2"/>
@@ -11031,7 +11025,7 @@
         <v>13</v>
       </c>
       <c r="H180" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I180" t="s">
         <v>35</v>
@@ -11069,10 +11063,10 @@
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B181" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" si="2"/>
@@ -11106,7 +11100,7 @@
         <v>37</v>
       </c>
       <c r="Q181" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R181" t="s">
         <v>39</v>
@@ -11126,10 +11120,10 @@
     </row>
     <row r="182" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B182" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D182" t="str">
         <f t="shared" si="2"/>
@@ -11145,10 +11139,10 @@
         <v>4</v>
       </c>
       <c r="H182" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I182" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J182">
         <v>6</v>
@@ -11163,19 +11157,19 @@
         <v>37</v>
       </c>
       <c r="Q182" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R182" t="s">
         <v>39</v>
       </c>
       <c r="S182" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T182">
         <v>8</v>
       </c>
       <c r="U182" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V182" t="s">
         <v>26</v>
@@ -11183,7 +11177,7 @@
     </row>
     <row r="183" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B183" t="s">
         <v>23</v>
@@ -11214,19 +11208,19 @@
         <v>1</v>
       </c>
       <c r="Q183" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R183" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S183" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T183">
         <v>0</v>
       </c>
       <c r="U183" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V183" t="s">
         <v>41</v>
@@ -11234,7 +11228,7 @@
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B184" t="s">
         <v>27</v>
@@ -11265,19 +11259,19 @@
         <v>1</v>
       </c>
       <c r="Q184" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R184" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S184" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T184">
         <v>0</v>
       </c>
       <c r="U184" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V184" t="s">
         <v>41</v>
@@ -11285,7 +11279,7 @@
     </row>
     <row r="185" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B185" t="s">
         <v>28</v>
@@ -11319,13 +11313,13 @@
         <v>0</v>
       </c>
       <c r="P185" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q185" t="s">
         <v>29</v>
       </c>
       <c r="R185" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S185" t="s">
         <v>47</v>
@@ -11342,7 +11336,7 @@
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B186" t="s">
         <v>60</v>
@@ -11399,7 +11393,7 @@
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B187" t="s">
         <v>62</v>
@@ -11456,7 +11450,7 @@
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B188" t="s">
         <v>65</v>
@@ -11493,13 +11487,13 @@
         <v>37</v>
       </c>
       <c r="Q188" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R188" t="s">
         <v>39</v>
       </c>
       <c r="S188" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T188">
         <v>2</v>
@@ -11513,7 +11507,7 @@
     </row>
     <row r="189" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B189" t="s">
         <v>23</v>
@@ -11544,19 +11538,19 @@
         <v>1</v>
       </c>
       <c r="Q189" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R189" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S189" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T189">
         <v>0</v>
       </c>
       <c r="U189" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V189" t="s">
         <v>32</v>
@@ -11564,7 +11558,7 @@
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B190" t="s">
         <v>27</v>
@@ -11595,19 +11589,19 @@
         <v>1</v>
       </c>
       <c r="Q190" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R190" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S190" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T190">
         <v>0</v>
       </c>
       <c r="U190" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V190" t="s">
         <v>32</v>
@@ -11615,7 +11609,7 @@
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B191" t="s">
         <v>28</v>
@@ -11649,13 +11643,13 @@
         <v>0</v>
       </c>
       <c r="P191" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q191" t="s">
         <v>46</v>
       </c>
       <c r="R191" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S191" t="s">
         <v>47</v>
@@ -11672,10 +11666,10 @@
     </row>
     <row r="192" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B192" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="2"/>
@@ -11691,7 +11685,7 @@
         <v>8</v>
       </c>
       <c r="H192" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I192" t="s">
         <v>35</v>
@@ -11729,10 +11723,10 @@
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B193" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D193" t="str">
         <f t="shared" si="2"/>
@@ -11748,7 +11742,7 @@
         <v>26</v>
       </c>
       <c r="H193" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I193" t="s">
         <v>64</v>
@@ -11772,7 +11766,7 @@
         <v>39</v>
       </c>
       <c r="S193" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T193">
         <v>5</v>
@@ -11786,7 +11780,7 @@
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B194" t="s">
         <v>43</v>
@@ -11811,22 +11805,22 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q194" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R194" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S194" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T194">
         <v>0</v>
       </c>
       <c r="U194" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V194" t="s">
         <v>41</v>
@@ -11834,7 +11828,7 @@
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B195" t="s">
         <v>43</v>
@@ -11865,22 +11859,22 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q195" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R195" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S195" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T195">
         <v>0</v>
       </c>
       <c r="U195" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V195" t="s">
         <v>41</v>
@@ -11888,7 +11882,7 @@
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B196" t="s">
         <v>40</v>
@@ -11912,7 +11906,7 @@
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B197" t="s">
         <v>23</v>
@@ -11943,16 +11937,16 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q197" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R197" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S197" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T197">
         <v>0</v>
@@ -11966,7 +11960,7 @@
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B198" t="s">
         <v>27</v>
@@ -11997,16 +11991,16 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q198" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R198" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S198" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T198">
         <v>0</v>
@@ -12020,7 +12014,7 @@
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B199" t="s">
         <v>28</v>
@@ -12051,16 +12045,16 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q199" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R199" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S199" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T199">
         <v>0</v>
@@ -12077,7 +12071,7 @@
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B200" t="s">
         <v>33</v>
@@ -12096,7 +12090,7 @@
         <v>4</v>
       </c>
       <c r="H200" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I200" t="s">
         <v>64</v>
@@ -12111,7 +12105,7 @@
         <v>56</v>
       </c>
       <c r="Q200" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R200" t="s">
         <v>39</v>
@@ -12134,7 +12128,7 @@
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B201" t="s">
         <v>40</v>
@@ -12153,22 +12147,22 @@
         <v>0</v>
       </c>
       <c r="P201" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q201" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R201" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S201" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T201">
         <v>0</v>
       </c>
       <c r="U201" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V201" t="s">
         <v>41</v>
@@ -12176,7 +12170,7 @@
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B202" t="s">
         <v>23</v>
@@ -12207,22 +12201,22 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q202" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R202" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S202" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T202">
         <v>0</v>
       </c>
       <c r="U202" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V202" t="s">
         <v>32</v>
@@ -12230,7 +12224,7 @@
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B203" t="s">
         <v>27</v>
@@ -12261,16 +12255,16 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q203" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R203" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S203" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T203">
         <v>0</v>
@@ -12284,7 +12278,7 @@
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B204" t="s">
         <v>28</v>
@@ -12318,16 +12312,16 @@
         <v>0</v>
       </c>
       <c r="P204" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q204" t="s">
         <v>29</v>
       </c>
       <c r="R204" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S204" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T204">
         <v>0</v>
@@ -12341,7 +12335,7 @@
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B205" t="s">
         <v>33</v>
@@ -12360,7 +12354,7 @@
         <v>15</v>
       </c>
       <c r="H205" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I205" t="s">
         <v>64</v>
@@ -12384,13 +12378,13 @@
         <v>39</v>
       </c>
       <c r="S205" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T205">
         <v>1</v>
       </c>
       <c r="U205" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V205" t="s">
         <v>32</v>
@@ -12398,7 +12392,7 @@
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B206" t="s">
         <v>40</v>
@@ -12417,22 +12411,22 @@
         <v>0</v>
       </c>
       <c r="P206" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q206" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R206" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S206" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T206">
         <v>0</v>
       </c>
       <c r="U206" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V206" t="s">
         <v>32</v>
@@ -12440,7 +12434,7 @@
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B207" t="s">
         <v>23</v>
@@ -12485,7 +12479,7 @@
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B208" t="s">
         <v>27</v>
@@ -12530,7 +12524,7 @@
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B209" t="s">
         <v>28</v>
@@ -12567,7 +12561,7 @@
         <v>59</v>
       </c>
       <c r="S209" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T209">
         <v>0</v>
@@ -12584,7 +12578,7 @@
     </row>
     <row r="210" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>33</v>
@@ -12627,7 +12621,7 @@
         <v>39</v>
       </c>
       <c r="S210" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T210" s="4">
         <v>2</v>
@@ -12644,7 +12638,7 @@
     </row>
     <row r="211" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>33</v>
@@ -12687,7 +12681,7 @@
         <v>39</v>
       </c>
       <c r="S211" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T211" s="4">
         <v>2</v>
@@ -12704,7 +12698,7 @@
     </row>
     <row r="212" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>40</v>
@@ -12728,7 +12722,7 @@
     </row>
     <row r="213" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>23</v>
@@ -12759,16 +12753,16 @@
         <v>1</v>
       </c>
       <c r="P213" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q213" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R213" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S213" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T213" s="4">
         <v>0</v>
@@ -12782,7 +12776,7 @@
     </row>
     <row r="214" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>27</v>
@@ -12813,16 +12807,16 @@
         <v>1</v>
       </c>
       <c r="P214" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q214" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R214" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S214" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T214" s="4">
         <v>0</v>
@@ -12836,7 +12830,7 @@
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B215" t="s">
         <v>28</v>
@@ -12870,13 +12864,13 @@
         <v>0</v>
       </c>
       <c r="P215" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q215" t="s">
         <v>46</v>
       </c>
       <c r="R215" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S215" t="s">
         <v>47</v>
@@ -12896,7 +12890,7 @@
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B216" t="s">
         <v>60</v>
@@ -12930,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="P216" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q216" t="s">
         <v>38</v>
@@ -12939,7 +12933,7 @@
         <v>39</v>
       </c>
       <c r="S216" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T216">
         <v>0</v>
@@ -12956,7 +12950,7 @@
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B217" t="s">
         <v>62</v>
@@ -13016,10 +13010,10 @@
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B218" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D218" t="str">
         <f t="shared" si="3"/>
@@ -13035,7 +13029,7 @@
         <v>3</v>
       </c>
       <c r="H218" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I218" t="s">
         <v>35</v>
@@ -13047,28 +13041,28 @@
         <v>4</v>
       </c>
       <c r="L218" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O218" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P218" t="s">
         <v>56</v>
       </c>
       <c r="Q218" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R218" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S218" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T218">
         <v>25</v>
       </c>
       <c r="U218" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V218" t="s">
         <v>32</v>
@@ -13079,7 +13073,7 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B219" t="s">
         <v>23</v>
@@ -13110,22 +13104,22 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q219" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R219" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S219" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T219">
         <v>0</v>
       </c>
       <c r="U219" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V219" t="s">
         <v>32</v>
@@ -13133,7 +13127,7 @@
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B220" t="s">
         <v>27</v>
@@ -13164,22 +13158,22 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q220" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R220" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S220" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T220">
         <v>0</v>
       </c>
       <c r="U220" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V220" t="s">
         <v>32</v>
@@ -13187,7 +13181,7 @@
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B221" t="s">
         <v>28</v>
@@ -13221,13 +13215,13 @@
         <v>70</v>
       </c>
       <c r="P221" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q221" t="s">
         <v>46</v>
       </c>
       <c r="R221" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S221" t="s">
         <v>47</v>
@@ -13244,7 +13238,7 @@
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B222" t="s">
         <v>60</v>
@@ -13263,10 +13257,10 @@
         <v>20</v>
       </c>
       <c r="H222" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I222" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J222">
         <v>2.5</v>
@@ -13301,7 +13295,7 @@
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B223" t="s">
         <v>62</v>
@@ -13320,10 +13314,10 @@
         <v>11</v>
       </c>
       <c r="H223" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I223" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J223">
         <v>2.5</v>
@@ -13344,7 +13338,7 @@
         <v>39</v>
       </c>
       <c r="S223" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T223">
         <v>2</v>
@@ -13358,7 +13352,7 @@
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B224" t="s">
         <v>65</v>
@@ -13389,7 +13383,7 @@
         <v>2</v>
       </c>
       <c r="L224" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P224" t="s">
         <v>37</v>
@@ -13401,13 +13395,13 @@
         <v>39</v>
       </c>
       <c r="S224" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T224">
         <v>8</v>
       </c>
       <c r="U224" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V224" t="s">
         <v>32</v>
@@ -13415,7 +13409,7 @@
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B225" t="s">
         <v>23</v>
@@ -13457,7 +13451,7 @@
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B226" t="s">
         <v>27</v>
@@ -13499,7 +13493,7 @@
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B227" t="s">
         <v>28</v>
@@ -13530,7 +13524,7 @@
         <v>1</v>
       </c>
       <c r="L227" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q227" t="s">
         <v>29</v>
@@ -13556,10 +13550,10 @@
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B228" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D228" t="str">
         <f t="shared" si="3"/>
@@ -13575,7 +13569,7 @@
         <v>5</v>
       </c>
       <c r="H228" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I228" t="s">
         <v>25</v>
@@ -13596,7 +13590,7 @@
         <v>39</v>
       </c>
       <c r="S228" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T228">
         <v>0</v>
@@ -13613,7 +13607,7 @@
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B229" t="s">
         <v>60</v>
@@ -13632,7 +13626,7 @@
         <v>3</v>
       </c>
       <c r="H229" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I229" t="s">
         <v>25</v>
@@ -13670,7 +13664,7 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B230" t="s">
         <v>62</v>
@@ -13710,7 +13704,7 @@
         <v>39</v>
       </c>
       <c r="S230" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T230">
         <v>0</v>
@@ -13724,7 +13718,7 @@
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B231" t="s">
         <v>62</v>
@@ -13767,7 +13761,7 @@
         <v>39</v>
       </c>
       <c r="S231" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T231">
         <v>0</v>
@@ -13784,7 +13778,7 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B232" t="s">
         <v>62</v>
@@ -13827,7 +13821,7 @@
         <v>39</v>
       </c>
       <c r="S232" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T232">
         <v>0</v>
@@ -13844,7 +13838,7 @@
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B233" t="s">
         <v>65</v>
@@ -13878,7 +13872,7 @@
         <v>3</v>
       </c>
       <c r="O233" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P233" t="s">
         <v>56</v>
@@ -13890,7 +13884,7 @@
         <v>59</v>
       </c>
       <c r="S233" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T233">
         <v>2</v>
@@ -13907,7 +13901,7 @@
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B234" t="s">
         <v>65</v>
@@ -13941,7 +13935,7 @@
         <v>3</v>
       </c>
       <c r="O234" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P234" t="s">
         <v>56</v>
@@ -13953,7 +13947,7 @@
         <v>59</v>
       </c>
       <c r="S234" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T234">
         <v>2</v>
@@ -13970,7 +13964,7 @@
     </row>
     <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B235" t="s">
         <v>65</v>
@@ -14004,7 +13998,7 @@
         <v>3</v>
       </c>
       <c r="O235" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P235" t="s">
         <v>56</v>
@@ -14016,7 +14010,7 @@
         <v>59</v>
       </c>
       <c r="S235" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T235">
         <v>2</v>
@@ -14030,10 +14024,10 @@
     </row>
     <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B236" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D236" t="str">
         <f t="shared" si="3"/>
@@ -14049,10 +14043,10 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I236" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J236">
         <v>6</v>
@@ -14061,7 +14055,7 @@
         <v>3</v>
       </c>
       <c r="P236" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q236" t="s">
         <v>48</v>
@@ -14070,7 +14064,7 @@
         <v>39</v>
       </c>
       <c r="S236" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="T236">
         <v>25</v>
@@ -14084,7 +14078,7 @@
     </row>
     <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B237" t="s">
         <v>40</v>
@@ -14108,7 +14102,7 @@
     </row>
     <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B238" t="s">
         <v>23</v>
@@ -14139,16 +14133,16 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q238" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R238" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S238" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T238">
         <v>0</v>
@@ -14162,7 +14156,7 @@
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B239" t="s">
         <v>27</v>
@@ -14193,16 +14187,16 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q239" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R239" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S239" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T239">
         <v>0</v>
@@ -14216,7 +14210,7 @@
     </row>
     <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B240" t="s">
         <v>28</v>
@@ -14247,10 +14241,10 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q240" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R240" t="s">
         <v>39</v>
@@ -14273,7 +14267,7 @@
     </row>
     <row r="241" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B241" t="s">
         <v>33</v>
@@ -14292,7 +14286,7 @@
         <v>6</v>
       </c>
       <c r="H241" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I241" t="s">
         <v>64</v>
@@ -14307,16 +14301,16 @@
         <v>0</v>
       </c>
       <c r="P241" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q241" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R241" t="s">
         <v>39</v>
       </c>
       <c r="S241" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T241">
         <v>0</v>
@@ -14333,10 +14327,10 @@
     </row>
     <row r="242" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B242" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D242" t="str">
         <f t="shared" si="3"/>
@@ -14367,16 +14361,16 @@
         <v>0</v>
       </c>
       <c r="P242" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q242" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R242" t="s">
         <v>39</v>
       </c>
       <c r="S242" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T242">
         <v>5</v>
@@ -14393,10 +14387,10 @@
     </row>
     <row r="243" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B243" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D243" t="str">
         <f t="shared" si="3"/>
@@ -14412,7 +14406,7 @@
         <v>42</v>
       </c>
       <c r="H243" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I243" t="s">
         <v>35</v>
@@ -14427,16 +14421,16 @@
         <v>0</v>
       </c>
       <c r="P243" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q243" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R243" t="s">
         <v>39</v>
       </c>
       <c r="S243" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T243">
         <v>10</v>
@@ -14453,7 +14447,7 @@
     </row>
     <row r="244" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B244" t="s">
         <v>67</v>
@@ -14472,7 +14466,7 @@
         <v>38</v>
       </c>
       <c r="H244" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I244" t="s">
         <v>64</v>
@@ -14487,16 +14481,16 @@
         <v>0</v>
       </c>
       <c r="P244" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q244" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R244" t="s">
         <v>59</v>
       </c>
       <c r="S244" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T244">
         <v>35</v>
@@ -14513,7 +14507,7 @@
     </row>
     <row r="245" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B245" t="s">
         <v>23</v>
@@ -14544,22 +14538,22 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q245" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R245" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S245" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T245">
         <v>0</v>
       </c>
       <c r="U245" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V245" t="s">
         <v>32</v>
@@ -14567,7 +14561,7 @@
     </row>
     <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B246" t="s">
         <v>27</v>
@@ -14598,22 +14592,22 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q246" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R246" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S246" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T246">
         <v>0</v>
       </c>
       <c r="U246" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V246" t="s">
         <v>32</v>
@@ -14621,7 +14615,7 @@
     </row>
     <row r="247" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B247" t="s">
         <v>28</v>
@@ -14640,7 +14634,7 @@
         <v>7</v>
       </c>
       <c r="H247" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I247" t="s">
         <v>25</v>
@@ -14655,7 +14649,7 @@
         <v>0</v>
       </c>
       <c r="P247" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q247" t="s">
         <v>29</v>
@@ -14681,7 +14675,7 @@
     </row>
     <row r="248" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B248" t="s">
         <v>33</v>
@@ -14724,7 +14718,7 @@
         <v>59</v>
       </c>
       <c r="S248" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T248">
         <v>5</v>
@@ -14741,10 +14735,10 @@
     </row>
     <row r="249" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B249" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D249" t="str">
         <f t="shared" si="3"/>
@@ -14784,7 +14778,7 @@
         <v>39</v>
       </c>
       <c r="S249" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T249">
         <v>10</v>
@@ -14801,10 +14795,10 @@
     </row>
     <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B250" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -14823,7 +14817,7 @@
         <v>9</v>
       </c>
       <c r="H250" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I250" t="s">
         <v>35</v>
@@ -14864,10 +14858,10 @@
     </row>
     <row r="251" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B251" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C251">
         <v>2</v>
@@ -14886,7 +14880,7 @@
         <v>10</v>
       </c>
       <c r="H251" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I251" t="s">
         <v>35</v>
@@ -14927,10 +14921,10 @@
     </row>
     <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B252" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C252">
         <v>3</v>
@@ -14949,7 +14943,7 @@
         <v>10</v>
       </c>
       <c r="H252" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I252" t="s">
         <v>35</v>
@@ -14990,7 +14984,7 @@
     </row>
     <row r="253" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B253" t="s">
         <v>67</v>
@@ -15024,19 +15018,19 @@
         <v>4</v>
       </c>
       <c r="L253" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P253" t="s">
         <v>37</v>
       </c>
       <c r="Q253" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R253" t="s">
         <v>39</v>
       </c>
       <c r="S253" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T253">
         <v>20</v>
@@ -15053,7 +15047,7 @@
     </row>
     <row r="254" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B254" t="s">
         <v>67</v>
@@ -15087,19 +15081,19 @@
         <v>4</v>
       </c>
       <c r="L254" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P254" t="s">
         <v>37</v>
       </c>
       <c r="Q254" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R254" t="s">
         <v>39</v>
       </c>
       <c r="S254" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T254">
         <v>20</v>
@@ -15116,10 +15110,10 @@
     </row>
     <row r="255" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B255" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -15138,7 +15132,7 @@
         <v>10</v>
       </c>
       <c r="H255" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I255" t="s">
         <v>64</v>
@@ -15150,28 +15144,28 @@
         <v>3</v>
       </c>
       <c r="L255" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O255" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P255" t="s">
         <v>37</v>
       </c>
       <c r="Q255" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="R255" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S255" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T255">
         <v>30</v>
       </c>
       <c r="U255" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V255" t="s">
         <v>32</v>
@@ -15182,10 +15176,10 @@
     </row>
     <row r="256" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B256" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C256">
         <v>2</v>
@@ -15204,7 +15198,7 @@
         <v>10</v>
       </c>
       <c r="H256" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I256" t="s">
         <v>64</v>
@@ -15219,25 +15213,25 @@
         <v>0</v>
       </c>
       <c r="O256" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P256" t="s">
         <v>56</v>
       </c>
       <c r="Q256" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R256" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S256" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T256">
         <v>35</v>
       </c>
       <c r="U256" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V256" t="s">
         <v>32</v>
@@ -15248,10 +15242,10 @@
     </row>
     <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B257" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C257">
         <v>3</v>
@@ -15270,7 +15264,7 @@
         <v>10</v>
       </c>
       <c r="H257" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I257" t="s">
         <v>64</v>
@@ -15285,25 +15279,25 @@
         <v>0</v>
       </c>
       <c r="O257" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P257" t="s">
         <v>56</v>
       </c>
       <c r="Q257" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R257" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S257" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T257">
         <v>25</v>
       </c>
       <c r="U257" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V257" t="s">
         <v>32</v>
@@ -15311,10 +15305,10 @@
     </row>
     <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B258" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C258">
         <v>4</v>
@@ -15333,7 +15327,7 @@
         <v>10</v>
       </c>
       <c r="H258" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I258" t="s">
         <v>64</v>
@@ -15348,25 +15342,25 @@
         <v>0</v>
       </c>
       <c r="O258" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P258" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q258" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R258" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S258" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T258">
         <v>21</v>
       </c>
       <c r="U258" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V258" t="s">
         <v>32</v>
@@ -15377,7 +15371,7 @@
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B259" t="s">
         <v>23</v>
@@ -15408,22 +15402,22 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q259" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R259" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S259" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T259">
         <v>0</v>
       </c>
       <c r="U259" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V259" t="s">
         <v>32</v>
@@ -15431,7 +15425,7 @@
     </row>
     <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B260" t="s">
         <v>27</v>
@@ -15462,22 +15456,22 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q260" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R260" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S260" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T260">
         <v>0</v>
       </c>
       <c r="U260" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V260" t="s">
         <v>32</v>
@@ -15485,10 +15479,10 @@
     </row>
     <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B261" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D261" t="str">
         <f t="shared" si="4"/>
@@ -15504,10 +15498,10 @@
         <v>3</v>
       </c>
       <c r="H261" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I261" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J261">
         <v>2.5</v>
@@ -15519,13 +15513,13 @@
         <v>0</v>
       </c>
       <c r="P261" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q261" t="s">
         <v>29</v>
       </c>
       <c r="R261" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S261" t="s">
         <v>30</v>
@@ -15542,10 +15536,10 @@
     </row>
     <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>178</v>
+      </c>
+      <c r="B262" t="s">
         <v>181</v>
-      </c>
-      <c r="B262" t="s">
-        <v>184</v>
       </c>
       <c r="D262" t="str">
         <f t="shared" si="4"/>
@@ -15561,10 +15555,10 @@
         <v>10</v>
       </c>
       <c r="H262" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I262" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J262">
         <v>2.5</v>
@@ -15576,13 +15570,13 @@
         <v>0</v>
       </c>
       <c r="P262" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q262" t="s">
         <v>46</v>
       </c>
       <c r="R262" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S262" t="s">
         <v>30</v>
@@ -15599,10 +15593,10 @@
     </row>
     <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B263" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D263" t="str">
         <f t="shared" si="4"/>
@@ -15630,7 +15624,7 @@
         <v>1</v>
       </c>
       <c r="L263" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P263" t="s">
         <v>37</v>
@@ -15656,10 +15650,10 @@
     </row>
     <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B264" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D264" t="str">
         <f t="shared" si="4"/>
@@ -15675,7 +15669,7 @@
         <v>19</v>
       </c>
       <c r="H264" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I264" t="s">
         <v>64</v>
@@ -15687,7 +15681,7 @@
         <v>3</v>
       </c>
       <c r="L264" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P264" t="s">
         <v>37</v>
@@ -15713,10 +15707,10 @@
     </row>
     <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B265" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D265" t="str">
         <f t="shared" si="4"/>
@@ -15732,7 +15726,7 @@
         <v>13</v>
       </c>
       <c r="H265" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I265" t="s">
         <v>64</v>
@@ -15747,25 +15741,25 @@
         <v>0</v>
       </c>
       <c r="O265" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P265" t="s">
         <v>37</v>
       </c>
       <c r="Q265" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R265" t="s">
         <v>59</v>
       </c>
       <c r="S265" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T265">
         <v>35</v>
       </c>
       <c r="U265" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V265" t="s">
         <v>32</v>
@@ -15773,7 +15767,7 @@
     </row>
     <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B266" t="s">
         <v>23</v>
@@ -15804,22 +15798,22 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q266" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R266" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S266" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T266">
         <v>0</v>
       </c>
       <c r="U266" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V266" t="s">
         <v>32</v>
@@ -15827,7 +15821,7 @@
     </row>
     <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B267" t="s">
         <v>27</v>
@@ -15858,22 +15852,22 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q267" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R267" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S267" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T267">
         <v>0</v>
       </c>
       <c r="U267" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V267" t="s">
         <v>32</v>
@@ -15881,7 +15875,7 @@
     </row>
     <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B268" t="s">
         <v>28</v>
@@ -15915,16 +15909,16 @@
         <v>0</v>
       </c>
       <c r="P268" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q268" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R268" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S268" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T268">
         <v>0</v>
@@ -15938,10 +15932,10 @@
     </row>
     <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B269" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D269" t="str">
         <f t="shared" si="4"/>
@@ -15957,7 +15951,7 @@
         <v>28</v>
       </c>
       <c r="H269" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I269" t="s">
         <v>35</v>
@@ -15969,7 +15963,7 @@
         <v>1</v>
       </c>
       <c r="L269" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P269" t="s">
         <v>37</v>
@@ -15981,7 +15975,7 @@
         <v>39</v>
       </c>
       <c r="S269" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T269">
         <v>0</v>
@@ -15995,10 +15989,10 @@
     </row>
     <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B270" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D270" t="str">
         <f t="shared" si="4"/>
@@ -16014,7 +16008,7 @@
         <v>17</v>
       </c>
       <c r="H270" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I270" t="s">
         <v>64</v>
@@ -16038,13 +16032,13 @@
         <v>39</v>
       </c>
       <c r="S270" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T270">
         <v>2</v>
       </c>
       <c r="U270" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V270" t="s">
         <v>32</v>
@@ -16052,7 +16046,7 @@
     </row>
     <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B271" t="s">
         <v>23</v>
@@ -16083,22 +16077,22 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q271" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R271" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S271" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T271">
         <v>0</v>
       </c>
       <c r="U271" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V271" t="s">
         <v>32</v>
@@ -16106,7 +16100,7 @@
     </row>
     <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B272" t="s">
         <v>27</v>
@@ -16137,22 +16131,22 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q272" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R272" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S272" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T272">
         <v>0</v>
       </c>
       <c r="U272" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V272" t="s">
         <v>32</v>
@@ -16160,7 +16154,7 @@
     </row>
     <row r="273" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B273" t="s">
         <v>28</v>
@@ -16194,13 +16188,13 @@
         <v>61</v>
       </c>
       <c r="P273" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q273" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="R273" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S273" t="s">
         <v>47</v>
@@ -16217,10 +16211,10 @@
     </row>
     <row r="274" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B274" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D274" t="str">
         <f t="shared" si="4"/>
@@ -16274,10 +16268,10 @@
     </row>
     <row r="275" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B275" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D275" t="str">
         <f t="shared" si="4"/>
@@ -16293,7 +16287,7 @@
         <v>17</v>
       </c>
       <c r="H275" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I275" t="s">
         <v>64</v>
@@ -16311,13 +16305,13 @@
         <v>37</v>
       </c>
       <c r="Q275" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R275" t="s">
         <v>39</v>
       </c>
       <c r="S275" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T275">
         <v>2</v>
@@ -16346,51 +16340,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -16399,13 +16393,13 @@
         <v>43654</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G2">
         <v>281621.03100000002</v>
@@ -16414,27 +16408,27 @@
         <v>4871253.1179999998</v>
       </c>
       <c r="I2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M2" t="s">
         <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -16443,13 +16437,13 @@
         <v>43624</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G3">
         <v>281611.74599999998</v>
@@ -16458,27 +16452,27 @@
         <v>4871245.68</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M3" t="s">
         <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -16487,13 +16481,13 @@
         <v>43633</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G4">
         <v>281626.07500000001</v>
@@ -16505,24 +16499,24 @@
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M4" t="s">
         <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -16531,13 +16525,13 @@
         <v>43350</v>
       </c>
       <c r="D5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" t="s">
         <v>211</v>
-      </c>
-      <c r="E5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F5" t="s">
-        <v>214</v>
       </c>
       <c r="G5">
         <v>281617.42099999997</v>
@@ -16546,24 +16540,24 @@
         <v>4871242.8679999998</v>
       </c>
       <c r="I5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M5" t="s">
         <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -16572,13 +16566,13 @@
         <v>43633</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G6">
         <v>281632.761</v>
@@ -16587,27 +16581,27 @@
         <v>4871213.6260000002</v>
       </c>
       <c r="I6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -16616,13 +16610,13 @@
         <v>43402</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G7">
         <v>281641.48</v>
@@ -16634,79 +16628,79 @@
         <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" t="s">
         <v>221</v>
       </c>
-      <c r="L7" t="s">
-        <v>224</v>
-      </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2">
         <v>43741</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2">
         <v>43633</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G9">
         <v>281664.00699999998</v>
@@ -16715,122 +16709,122 @@
         <v>4871152.392</v>
       </c>
       <c r="I9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2">
         <v>43647</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J10">
         <v>56.5</v>
       </c>
       <c r="K10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2">
         <v>43643</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2">
         <v>43644</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G12">
         <v>281667.50099999999</v>
@@ -16842,39 +16836,39 @@
         <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2">
         <v>43654</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G13">
         <v>281671.92700000003</v>
@@ -16883,42 +16877,42 @@
         <v>4871119.1279999996</v>
       </c>
       <c r="I13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K13" t="s">
+        <v>234</v>
+      </c>
+      <c r="L13" t="s">
         <v>237</v>
       </c>
-      <c r="L13" t="s">
-        <v>240</v>
-      </c>
       <c r="M13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" t="s">
         <v>203</v>
-      </c>
-      <c r="B14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" t="s">
-        <v>207</v>
-      </c>
-      <c r="E14" t="s">
-        <v>205</v>
-      </c>
-      <c r="F14" t="s">
-        <v>206</v>
       </c>
       <c r="G14">
         <v>281750.913</v>
@@ -16927,42 +16921,42 @@
         <v>4871279.0750000002</v>
       </c>
       <c r="I14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M14" t="s">
         <v>40</v>
       </c>
       <c r="N14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="2">
         <v>43624</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G15">
         <v>281771.02799999999</v>
@@ -16971,42 +16965,42 @@
         <v>4871268.2680000002</v>
       </c>
       <c r="I15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
       </c>
       <c r="N15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="2">
         <v>43634</v>
       </c>
       <c r="D16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G16">
         <v>281780.48300000001</v>
@@ -17015,42 +17009,42 @@
         <v>4871262.5379999997</v>
       </c>
       <c r="I16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M16" t="s">
         <v>40</v>
       </c>
       <c r="N16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" s="2">
         <v>43634</v>
       </c>
       <c r="D17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" t="s">
         <v>211</v>
-      </c>
-      <c r="E17" t="s">
-        <v>212</v>
-      </c>
-      <c r="F17" t="s">
-        <v>214</v>
       </c>
       <c r="G17">
         <v>281773.223</v>
@@ -17059,42 +17053,42 @@
         <v>4871260.216</v>
       </c>
       <c r="I17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M17" t="s">
         <v>40</v>
       </c>
       <c r="N17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C18" s="2">
         <v>43634</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G18">
         <v>281788.58299999998</v>
@@ -17106,39 +17100,39 @@
         <v>41.5</v>
       </c>
       <c r="J18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C19" s="2">
         <v>43698</v>
       </c>
       <c r="D19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G19">
         <v>281779.36200000002</v>
@@ -17147,42 +17141,42 @@
         <v>4871195.9989999998</v>
       </c>
       <c r="I19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C20" s="2">
         <v>43635</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G20">
         <v>281790.61099999998</v>
@@ -17194,39 +17188,39 @@
         <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C21" s="2">
         <v>43649</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G21">
         <v>281770.76699999999</v>
@@ -17235,42 +17229,42 @@
         <v>4871114.09</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J21">
         <v>62</v>
       </c>
       <c r="K21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C22" s="2">
         <v>43644</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G22">
         <v>281769.12199999997</v>
@@ -17279,42 +17273,42 @@
         <v>4871108.6189999999</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C23" s="2">
         <v>43648</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G23">
         <v>281800.74300000002</v>
@@ -17323,42 +17317,42 @@
         <v>4871175.7050000001</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M23" t="s">
         <v>40</v>
       </c>
       <c r="N23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C24" s="2">
         <v>43648</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G24">
         <v>281783.26699999999</v>
@@ -17367,42 +17361,42 @@
         <v>4871110.1289999997</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L24" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C25" s="2">
         <v>43655</v>
       </c>
       <c r="D25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E25" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G25">
         <v>281731.58600000001</v>
@@ -17411,42 +17405,42 @@
         <v>4871107.7240000004</v>
       </c>
       <c r="I25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N25" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" t="s">
         <v>203</v>
-      </c>
-      <c r="B26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" t="s">
-        <v>207</v>
-      </c>
-      <c r="E26" t="s">
-        <v>205</v>
-      </c>
-      <c r="F26" t="s">
-        <v>206</v>
       </c>
       <c r="G26">
         <v>281947.45899999997</v>
@@ -17455,42 +17449,42 @@
         <v>4870684.7319999998</v>
       </c>
       <c r="I26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M26" t="s">
         <v>40</v>
       </c>
       <c r="N26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C27" s="2">
         <v>43624</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G27">
         <v>281938.59999999998</v>
@@ -17499,42 +17493,42 @@
         <v>4870684.7460000003</v>
       </c>
       <c r="I27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M27" t="s">
         <v>40</v>
       </c>
       <c r="N27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C28" s="2">
         <v>43626</v>
       </c>
       <c r="D28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" t="s">
         <v>211</v>
-      </c>
-      <c r="E28" t="s">
-        <v>213</v>
-      </c>
-      <c r="F28" t="s">
-        <v>214</v>
       </c>
       <c r="G28">
         <v>281915.71600000001</v>
@@ -17543,42 +17537,42 @@
         <v>4870652.2369999997</v>
       </c>
       <c r="I28" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J28" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M28" t="s">
         <v>40</v>
       </c>
       <c r="N28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C29" s="2">
         <v>43635</v>
       </c>
       <c r="D29" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" t="s">
         <v>211</v>
-      </c>
-      <c r="E29" t="s">
-        <v>212</v>
-      </c>
-      <c r="F29" t="s">
-        <v>214</v>
       </c>
       <c r="G29">
         <v>281932.34399999998</v>
@@ -17590,39 +17584,39 @@
         <v>27</v>
       </c>
       <c r="J29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K29" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C30" s="2">
         <v>43983</v>
       </c>
       <c r="D30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" t="s">
         <v>211</v>
-      </c>
-      <c r="E30" t="s">
-        <v>212</v>
-      </c>
-      <c r="F30" t="s">
-        <v>214</v>
       </c>
       <c r="G30">
         <v>281966.91399999999</v>
@@ -17631,42 +17625,42 @@
         <v>4870651.2659999998</v>
       </c>
       <c r="I30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M30" t="s">
         <v>40</v>
       </c>
       <c r="N30" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C31" s="2">
         <v>43626</v>
       </c>
       <c r="D31" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E31" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G31">
         <v>281844.91700000002</v>
@@ -17675,42 +17669,42 @@
         <v>4870632.7980000004</v>
       </c>
       <c r="I31" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J31">
         <v>72</v>
       </c>
       <c r="K31" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L31" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N31" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C32" s="2">
         <v>43639</v>
       </c>
       <c r="D32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G32">
         <v>281869.72399999999</v>
@@ -17719,42 +17713,42 @@
         <v>4870640.5130000003</v>
       </c>
       <c r="I32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J32">
         <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N32" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C33" s="2">
         <v>43984</v>
       </c>
       <c r="D33" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G33">
         <v>281944.68400000001</v>
@@ -17763,42 +17757,42 @@
         <v>4870635.4539999999</v>
       </c>
       <c r="I33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K33" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M33" t="s">
         <v>40</v>
       </c>
       <c r="N33" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C34" s="2">
         <v>43628</v>
       </c>
       <c r="D34" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E34" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G34">
         <v>281813.766</v>
@@ -17807,42 +17801,42 @@
         <v>4870628.1279999996</v>
       </c>
       <c r="I34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N34" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C35" s="2">
         <v>43651</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F35" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G35">
         <v>281812.55200000003</v>
@@ -17851,42 +17845,42 @@
         <v>4870608.91</v>
       </c>
       <c r="I35" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J35">
         <v>65</v>
       </c>
       <c r="K35" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N35" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C36" s="2">
         <v>43639</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F36" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G36">
         <v>281693.35100000002</v>
@@ -17898,39 +17892,39 @@
         <v>62</v>
       </c>
       <c r="J36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K36" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L36" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C37" s="2">
         <v>43655</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F37" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G37">
         <v>281756.73700000002</v>
@@ -17939,42 +17933,42 @@
         <v>4870600.7290000003</v>
       </c>
       <c r="I37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N37" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C38" s="2">
         <v>43655</v>
       </c>
       <c r="D38" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E38" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G38">
         <v>281768.96500000003</v>
@@ -17983,22 +17977,22 @@
         <v>4870603.7439999999</v>
       </c>
       <c r="I38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K38" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/hb_pedons_analysis_0426.xlsx
+++ b/data/raw/hb_pedons_analysis_0426.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab/Exchangeable/VT/Soil_Analyses/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9AB59E-1010-0443-B393-D1DCA3544DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FDC11C-80EA-A94F-B9E2-A7B2EBFDB397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="500" windowWidth="22680" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1728,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I261" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q256" sqref="Q256"/>
+    <sheetView tabSelected="1" topLeftCell="O212" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L243" sqref="L243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12340,18 +12340,21 @@
       <c r="B205" t="s">
         <v>33</v>
       </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
       <c r="D205" t="str">
         <f t="shared" si="3"/>
-        <v>E</v>
+        <v>E.1</v>
       </c>
       <c r="E205">
         <v>14</v>
       </c>
       <c r="F205">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G205">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H205" t="s">
         <v>158</v>
@@ -12395,83 +12398,98 @@
         <v>155</v>
       </c>
       <c r="B206" t="s">
+        <v>33</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+      <c r="D206" t="str">
+        <f t="shared" ref="D206" si="4">IF(ISBLANK(C206),B206,_xlfn.CONCAT(B206,".",C206))</f>
+        <v>E.2</v>
+      </c>
+      <c r="E206">
+        <v>21</v>
+      </c>
+      <c r="F206">
+        <v>29</v>
+      </c>
+      <c r="G206">
+        <v>8</v>
+      </c>
+      <c r="H206" t="s">
+        <v>158</v>
+      </c>
+      <c r="I206" t="s">
+        <v>64</v>
+      </c>
+      <c r="J206">
+        <v>5</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="P206" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>38</v>
+      </c>
+      <c r="R206" t="s">
+        <v>39</v>
+      </c>
+      <c r="S206" t="s">
+        <v>131</v>
+      </c>
+      <c r="T206">
+        <v>1</v>
+      </c>
+      <c r="U206" t="s">
+        <v>131</v>
+      </c>
+      <c r="V206" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>155</v>
+      </c>
+      <c r="B207" t="s">
         <v>40</v>
       </c>
-      <c r="D206" t="str">
+      <c r="D207" t="str">
         <f t="shared" si="3"/>
         <v>R</v>
       </c>
-      <c r="E206">
+      <c r="E207">
         <v>29</v>
       </c>
-      <c r="F206">
+      <c r="F207">
         <v>29</v>
       </c>
-      <c r="G206">
-        <v>0</v>
-      </c>
-      <c r="P206" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q206" t="s">
-        <v>131</v>
-      </c>
-      <c r="R206" t="s">
-        <v>131</v>
-      </c>
-      <c r="S206" t="s">
-        <v>131</v>
-      </c>
-      <c r="T206">
-        <v>0</v>
-      </c>
-      <c r="U206" t="s">
-        <v>131</v>
-      </c>
-      <c r="V206" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>159</v>
-      </c>
-      <c r="B207" t="s">
-        <v>23</v>
-      </c>
-      <c r="D207" t="str">
-        <f t="shared" si="3"/>
-        <v>Oi</v>
-      </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
-      <c r="F207">
-        <v>5</v>
-      </c>
       <c r="G207">
-        <v>5</v>
-      </c>
-      <c r="H207" t="s">
-        <v>24</v>
-      </c>
-      <c r="I207" t="s">
-        <v>25</v>
-      </c>
-      <c r="J207">
-        <v>2.5</v>
-      </c>
-      <c r="K207">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P207" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>131</v>
+      </c>
+      <c r="R207" t="s">
+        <v>131</v>
       </c>
       <c r="S207" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="T207">
         <v>0</v>
       </c>
       <c r="U207" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="V207" t="s">
         <v>32</v>
@@ -12482,20 +12500,20 @@
         <v>159</v>
       </c>
       <c r="B208" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D208" t="str">
         <f t="shared" si="3"/>
-        <v>Oe</v>
+        <v>Oi</v>
       </c>
       <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
         <v>5</v>
       </c>
-      <c r="F208">
-        <v>11</v>
-      </c>
       <c r="G208">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H208" t="s">
         <v>24</v>
@@ -12527,20 +12545,20 @@
         <v>159</v>
       </c>
       <c r="B209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D209" t="str">
         <f t="shared" si="3"/>
-        <v>Oa</v>
+        <v>Oe</v>
       </c>
       <c r="E209">
+        <v>5</v>
+      </c>
+      <c r="F209">
         <v>11</v>
       </c>
-      <c r="F209">
-        <v>16</v>
-      </c>
       <c r="G209">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H209" t="s">
         <v>24</v>
@@ -12554,14 +12572,8 @@
       <c r="K209">
         <v>1</v>
       </c>
-      <c r="Q209" t="s">
-        <v>29</v>
-      </c>
-      <c r="R209" t="s">
-        <v>59</v>
-      </c>
       <c r="S209" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="T209">
         <v>0</v>
@@ -12572,67 +12584,58 @@
       <c r="V209" t="s">
         <v>32</v>
       </c>
-      <c r="W209" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="210" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
         <v>159</v>
       </c>
-      <c r="B210" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C210" s="4">
-        <v>1</v>
+      <c r="B210" t="s">
+        <v>28</v>
       </c>
       <c r="D210" t="str">
         <f t="shared" si="3"/>
-        <v>E.1</v>
-      </c>
-      <c r="E210" s="4">
+        <v>Oa</v>
+      </c>
+      <c r="E210">
+        <v>11</v>
+      </c>
+      <c r="F210">
         <v>16</v>
       </c>
-      <c r="F210" s="4">
-        <v>23</v>
-      </c>
-      <c r="G210" s="4">
-        <v>7</v>
-      </c>
-      <c r="H210" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I210" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J210" s="4">
+      <c r="G210">
         <v>5</v>
       </c>
-      <c r="K210" s="4">
+      <c r="H210" t="s">
+        <v>24</v>
+      </c>
+      <c r="I210" t="s">
+        <v>25</v>
+      </c>
+      <c r="J210">
+        <v>2.5</v>
+      </c>
+      <c r="K210">
         <v>1</v>
       </c>
-      <c r="P210" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q210" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R210" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S210" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="T210" s="4">
-        <v>2</v>
-      </c>
-      <c r="U210" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V210" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W210" s="4" t="s">
+      <c r="Q210" t="s">
+        <v>29</v>
+      </c>
+      <c r="R210" t="s">
+        <v>59</v>
+      </c>
+      <c r="S210" t="s">
+        <v>101</v>
+      </c>
+      <c r="T210">
+        <v>0</v>
+      </c>
+      <c r="U210" t="s">
+        <v>52</v>
+      </c>
+      <c r="V210" t="s">
+        <v>32</v>
+      </c>
+      <c r="W210" t="s">
         <v>32</v>
       </c>
     </row>
@@ -12644,20 +12647,20 @@
         <v>33</v>
       </c>
       <c r="C211" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211" t="str">
         <f t="shared" si="3"/>
-        <v>E.2</v>
+        <v>E.1</v>
       </c>
       <c r="E211" s="4">
+        <v>16</v>
+      </c>
+      <c r="F211" s="4">
         <v>23</v>
       </c>
-      <c r="F211" s="4">
-        <v>31</v>
-      </c>
       <c r="G211" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H211" s="4" t="s">
         <v>34</v>
@@ -12701,77 +12704,83 @@
         <v>159</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="C212" s="4">
+        <v>2</v>
       </c>
       <c r="D212" t="str">
         <f t="shared" si="3"/>
-        <v>R</v>
+        <v>E.2</v>
       </c>
       <c r="E212" s="4">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F212" s="4">
         <v>31</v>
       </c>
       <c r="G212" s="4">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I212" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J212" s="4">
+        <v>5</v>
+      </c>
+      <c r="K212" s="4">
+        <v>1</v>
+      </c>
+      <c r="P212" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q212" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R212" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S212" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="T212" s="4">
+        <v>2</v>
+      </c>
+      <c r="U212" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="V212" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W212" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="213" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D213" t="str">
         <f t="shared" si="3"/>
-        <v>Oi</v>
+        <v>R</v>
       </c>
       <c r="E213" s="4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F213" s="4">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G213" s="4">
-        <v>3</v>
-      </c>
-      <c r="H213" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I213" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J213" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="K213" s="4">
-        <v>1</v>
-      </c>
-      <c r="P213" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q213" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="R213" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="S213" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="T213" s="4">
-        <v>0</v>
-      </c>
-      <c r="U213" s="4" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="V213" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="214" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -12779,20 +12788,20 @@
         <v>161</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D214" t="str">
         <f t="shared" si="3"/>
-        <v>Oe</v>
+        <v>Oi</v>
       </c>
       <c r="E214" s="4">
+        <v>0</v>
+      </c>
+      <c r="F214" s="4">
         <v>3</v>
       </c>
-      <c r="F214" s="4">
-        <v>13</v>
-      </c>
       <c r="G214" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H214" s="4" t="s">
         <v>24</v>
@@ -12828,64 +12837,58 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+    <row r="215" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B215" t="s">
-        <v>28</v>
+      <c r="B215" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D215" t="str">
         <f t="shared" si="3"/>
-        <v>Oa</v>
-      </c>
-      <c r="E215">
+        <v>Oe</v>
+      </c>
+      <c r="E215" s="4">
+        <v>3</v>
+      </c>
+      <c r="F215" s="4">
         <v>13</v>
       </c>
-      <c r="F215">
-        <v>30</v>
-      </c>
-      <c r="G215">
-        <v>17</v>
-      </c>
-      <c r="H215" t="s">
+      <c r="G215" s="4">
+        <v>10</v>
+      </c>
+      <c r="H215" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I215" t="s">
+      <c r="I215" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J215">
+      <c r="J215" s="4">
         <v>2.5</v>
       </c>
-      <c r="K215">
+      <c r="K215" s="4">
         <v>1</v>
       </c>
-      <c r="L215">
-        <v>0</v>
-      </c>
-      <c r="P215" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q215" t="s">
-        <v>46</v>
-      </c>
-      <c r="R215" t="s">
-        <v>131</v>
-      </c>
-      <c r="S215" t="s">
-        <v>47</v>
-      </c>
-      <c r="T215">
-        <v>0</v>
-      </c>
-      <c r="U215" t="s">
+      <c r="P215" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q215" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="R215" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S215" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="T215" s="4">
+        <v>0</v>
+      </c>
+      <c r="U215" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="V215" t="s">
-        <v>32</v>
-      </c>
-      <c r="W215" t="s">
-        <v>32</v>
+      <c r="V215" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.2">
@@ -12893,20 +12896,20 @@
         <v>161</v>
       </c>
       <c r="B216" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D216" t="str">
         <f t="shared" si="3"/>
-        <v>Bhs1</v>
+        <v>Oa</v>
       </c>
       <c r="E216">
+        <v>13</v>
+      </c>
+      <c r="F216">
         <v>30</v>
       </c>
-      <c r="F216">
-        <v>44</v>
-      </c>
       <c r="G216">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H216" t="s">
         <v>24</v>
@@ -12924,22 +12927,22 @@
         <v>0</v>
       </c>
       <c r="P216" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="Q216" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="R216" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="S216" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="T216">
         <v>0</v>
       </c>
       <c r="U216" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="V216" t="s">
         <v>32</v>
@@ -12953,38 +12956,38 @@
         <v>161</v>
       </c>
       <c r="B217" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D217" t="str">
         <f t="shared" si="3"/>
-        <v>Bhs2</v>
+        <v>Bhs1</v>
       </c>
       <c r="E217">
+        <v>30</v>
+      </c>
+      <c r="F217">
         <v>44</v>
       </c>
-      <c r="F217">
-        <v>72</v>
-      </c>
       <c r="G217">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H217" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="I217" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J217">
         <v>2.5</v>
       </c>
       <c r="K217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L217">
         <v>0</v>
       </c>
       <c r="P217" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="Q217" t="s">
         <v>38</v>
@@ -12993,13 +12996,13 @@
         <v>39</v>
       </c>
       <c r="S217" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="T217">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U217" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="V217" t="s">
         <v>32</v>
@@ -13013,56 +13016,53 @@
         <v>161</v>
       </c>
       <c r="B218" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D218" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
+        <v>Bhs2</v>
       </c>
       <c r="E218">
+        <v>44</v>
+      </c>
+      <c r="F218">
         <v>72</v>
       </c>
-      <c r="F218">
-        <v>75</v>
-      </c>
       <c r="G218">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="H218" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="I218" t="s">
         <v>35</v>
       </c>
       <c r="J218">
+        <v>2.5</v>
+      </c>
+      <c r="K218">
         <v>3</v>
       </c>
-      <c r="K218">
-        <v>4</v>
-      </c>
-      <c r="L218" t="s">
-        <v>163</v>
-      </c>
-      <c r="O218" t="s">
-        <v>76</v>
+      <c r="L218">
+        <v>0</v>
       </c>
       <c r="P218" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="Q218" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="R218" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="S218" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="T218">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="U218" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="V218" t="s">
         <v>32</v>
@@ -13073,55 +13073,64 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B219" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D219" t="str">
         <f t="shared" si="3"/>
-        <v>Oi</v>
+        <v>C</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F219">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="G219">
         <v>3</v>
       </c>
       <c r="H219" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I219" t="s">
+        <v>35</v>
+      </c>
+      <c r="J219">
+        <v>3</v>
+      </c>
+      <c r="K219">
+        <v>4</v>
+      </c>
+      <c r="L219" t="s">
+        <v>163</v>
+      </c>
+      <c r="O219" t="s">
+        <v>76</v>
+      </c>
+      <c r="P219" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>122</v>
+      </c>
+      <c r="R219" t="s">
+        <v>97</v>
+      </c>
+      <c r="S219" t="s">
+        <v>131</v>
+      </c>
+      <c r="T219">
         <v>25</v>
       </c>
-      <c r="J219">
-        <v>2.5</v>
-      </c>
-      <c r="K219">
-        <v>1</v>
-      </c>
-      <c r="P219" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q219" t="s">
-        <v>131</v>
-      </c>
-      <c r="R219" t="s">
-        <v>131</v>
-      </c>
-      <c r="S219" t="s">
-        <v>131</v>
-      </c>
-      <c r="T219">
-        <v>0</v>
-      </c>
       <c r="U219" t="s">
         <v>131</v>
       </c>
       <c r="V219" t="s">
+        <v>32</v>
+      </c>
+      <c r="W219" t="s">
         <v>32</v>
       </c>
     </row>
@@ -13130,20 +13139,20 @@
         <v>164</v>
       </c>
       <c r="B220" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D220" t="str">
         <f t="shared" si="3"/>
-        <v>Oe</v>
+        <v>Oi</v>
       </c>
       <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
         <v>3</v>
       </c>
-      <c r="F220">
-        <v>8</v>
-      </c>
       <c r="G220">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H220" t="s">
         <v>24</v>
@@ -13184,20 +13193,20 @@
         <v>164</v>
       </c>
       <c r="B221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D221" t="str">
         <f t="shared" si="3"/>
-        <v>Oa</v>
+        <v>Oe</v>
       </c>
       <c r="E221">
+        <v>3</v>
+      </c>
+      <c r="F221">
         <v>8</v>
       </c>
-      <c r="F221">
-        <v>14</v>
-      </c>
       <c r="G221">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H221" t="s">
         <v>24</v>
@@ -13211,26 +13220,23 @@
       <c r="K221">
         <v>1</v>
       </c>
-      <c r="L221" t="s">
-        <v>70</v>
-      </c>
       <c r="P221" t="s">
         <v>131</v>
       </c>
       <c r="Q221" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="R221" t="s">
         <v>131</v>
       </c>
       <c r="S221" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="T221">
         <v>0</v>
       </c>
       <c r="U221" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="V221" t="s">
         <v>32</v>
@@ -13241,26 +13247,26 @@
         <v>164</v>
       </c>
       <c r="B222" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D222" t="str">
         <f t="shared" si="3"/>
-        <v>Bhs1</v>
+        <v>Oa</v>
       </c>
       <c r="E222">
+        <v>8</v>
+      </c>
+      <c r="F222">
         <v>14</v>
       </c>
-      <c r="F222">
-        <v>34</v>
-      </c>
       <c r="G222">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H222" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="I222" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J222">
         <v>2.5</v>
@@ -13268,17 +13274,17 @@
       <c r="K222">
         <v>1</v>
       </c>
-      <c r="L222">
-        <v>0</v>
+      <c r="L222" t="s">
+        <v>70</v>
       </c>
       <c r="P222" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="Q222" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="R222" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="S222" t="s">
         <v>47</v>
@@ -13287,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="U222" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="V222" t="s">
         <v>32</v>
@@ -13298,20 +13304,20 @@
         <v>164</v>
       </c>
       <c r="B223" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D223" t="str">
         <f t="shared" si="3"/>
-        <v>Bhs2</v>
+        <v>Bhs1</v>
       </c>
       <c r="E223">
+        <v>14</v>
+      </c>
+      <c r="F223">
         <v>34</v>
       </c>
-      <c r="F223">
-        <v>45</v>
-      </c>
       <c r="G223">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H223" t="s">
         <v>165</v>
@@ -13325,8 +13331,8 @@
       <c r="K223">
         <v>1</v>
       </c>
-      <c r="L223" t="s">
-        <v>66</v>
+      <c r="L223">
+        <v>0</v>
       </c>
       <c r="P223" t="s">
         <v>37</v>
@@ -13338,10 +13344,10 @@
         <v>39</v>
       </c>
       <c r="S223" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="T223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U223" t="s">
         <v>31</v>
@@ -13355,35 +13361,35 @@
         <v>164</v>
       </c>
       <c r="B224" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D224" t="str">
         <f t="shared" si="3"/>
-        <v>Bhs3</v>
+        <v>Bhs2</v>
       </c>
       <c r="E224">
+        <v>34</v>
+      </c>
+      <c r="F224">
         <v>45</v>
       </c>
-      <c r="F224">
-        <v>52</v>
-      </c>
       <c r="G224">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H224" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="I224" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="J224">
         <v>2.5</v>
       </c>
       <c r="K224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L224" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="P224" t="s">
         <v>37</v>
@@ -13395,13 +13401,13 @@
         <v>39</v>
       </c>
       <c r="S224" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="T224">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U224" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="V224" t="s">
         <v>32</v>
@@ -13409,41 +13415,56 @@
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B225" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D225" t="str">
         <f t="shared" si="3"/>
-        <v>Oi</v>
+        <v>Bhs3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F225">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="G225">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H225" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I225" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J225">
         <v>2.5</v>
       </c>
       <c r="K225">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L225" t="s">
+        <v>163</v>
+      </c>
+      <c r="P225" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>38</v>
+      </c>
+      <c r="R225" t="s">
+        <v>39</v>
+      </c>
+      <c r="S225" t="s">
+        <v>131</v>
       </c>
       <c r="T225">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U225" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="V225" t="s">
         <v>32</v>
@@ -13454,20 +13475,20 @@
         <v>166</v>
       </c>
       <c r="B226" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D226" t="str">
         <f t="shared" si="3"/>
-        <v>Oe</v>
+        <v>Oi</v>
       </c>
       <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
         <v>4</v>
       </c>
-      <c r="F226">
-        <v>7</v>
-      </c>
       <c r="G226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H226" t="s">
         <v>24</v>
@@ -13496,20 +13517,20 @@
         <v>166</v>
       </c>
       <c r="B227" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D227" t="str">
         <f t="shared" si="3"/>
-        <v>Oa</v>
+        <v>Oe</v>
       </c>
       <c r="E227">
+        <v>4</v>
+      </c>
+      <c r="F227">
         <v>7</v>
       </c>
-      <c r="F227">
-        <v>12</v>
-      </c>
       <c r="G227">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H227" t="s">
         <v>24</v>
@@ -13523,18 +13544,6 @@
       <c r="K227">
         <v>1</v>
       </c>
-      <c r="L227" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q227" t="s">
-        <v>29</v>
-      </c>
-      <c r="R227" t="s">
-        <v>59</v>
-      </c>
-      <c r="S227" t="s">
-        <v>47</v>
-      </c>
       <c r="T227">
         <v>0</v>
       </c>
@@ -13542,9 +13551,6 @@
         <v>31</v>
       </c>
       <c r="V227" t="s">
-        <v>32</v>
-      </c>
-      <c r="W227" t="s">
         <v>32</v>
       </c>
     </row>
@@ -13553,44 +13559,44 @@
         <v>166</v>
       </c>
       <c r="B228" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="D228" t="str">
         <f t="shared" si="3"/>
-        <v>A</v>
+        <v>Oa</v>
       </c>
       <c r="E228">
+        <v>7</v>
+      </c>
+      <c r="F228">
         <v>12</v>
-      </c>
-      <c r="F228">
-        <v>17</v>
       </c>
       <c r="G228">
         <v>5</v>
       </c>
       <c r="H228" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="I228" t="s">
         <v>25</v>
       </c>
       <c r="J228">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K228">
         <v>1</v>
       </c>
-      <c r="P228" t="s">
-        <v>37</v>
+      <c r="L228" t="s">
+        <v>167</v>
       </c>
       <c r="Q228" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="R228" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="S228" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="T228">
         <v>0</v>
@@ -13610,32 +13616,32 @@
         <v>166</v>
       </c>
       <c r="B229" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D229" t="str">
         <f t="shared" si="3"/>
-        <v>Bhs1</v>
+        <v>A</v>
       </c>
       <c r="E229">
+        <v>12</v>
+      </c>
+      <c r="F229">
         <v>17</v>
       </c>
-      <c r="F229">
-        <v>20</v>
-      </c>
       <c r="G229">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H229" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="I229" t="s">
         <v>25</v>
       </c>
       <c r="J229">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P229" t="s">
         <v>37</v>
@@ -13647,7 +13653,7 @@
         <v>39</v>
       </c>
       <c r="S229" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="T229">
         <v>0</v>
@@ -13667,35 +13673,35 @@
         <v>166</v>
       </c>
       <c r="B230" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D230" t="str">
         <f t="shared" si="3"/>
-        <v>Bhs2</v>
+        <v>Bhs1</v>
       </c>
       <c r="E230">
+        <v>17</v>
+      </c>
+      <c r="F230">
         <v>20</v>
       </c>
-      <c r="F230">
-        <v>34</v>
-      </c>
       <c r="G230">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H230" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="I230" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J230">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K230">
         <v>2</v>
       </c>
       <c r="P230" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="Q230" t="s">
         <v>38</v>
@@ -13704,7 +13710,7 @@
         <v>39</v>
       </c>
       <c r="S230" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="T230">
         <v>0</v>
@@ -13713,6 +13719,9 @@
         <v>31</v>
       </c>
       <c r="V230" t="s">
+        <v>32</v>
+      </c>
+      <c r="W230" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15377,7 +15386,7 @@
         <v>23</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" ref="D259:D275" si="4">IF(ISBLANK(C259),B259,_xlfn.CONCAT(B259,".",C259))</f>
+        <f t="shared" ref="D259:D275" si="5">IF(ISBLANK(C259),B259,_xlfn.CONCAT(B259,".",C259))</f>
         <v>Oi</v>
       </c>
       <c r="E259">
@@ -15431,7 +15440,7 @@
         <v>27</v>
       </c>
       <c r="D260" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Oe</v>
       </c>
       <c r="E260">
@@ -15485,7 +15494,7 @@
         <v>179</v>
       </c>
       <c r="D261" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Oa1</v>
       </c>
       <c r="E261">
@@ -15542,7 +15551,7 @@
         <v>181</v>
       </c>
       <c r="D262" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Oa2</v>
       </c>
       <c r="E262">
@@ -15599,7 +15608,7 @@
         <v>118</v>
       </c>
       <c r="D263" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Bhs</v>
       </c>
       <c r="E263">
@@ -15656,7 +15665,7 @@
         <v>124</v>
       </c>
       <c r="D264" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Bh1</v>
       </c>
       <c r="E264">
@@ -15713,7 +15722,7 @@
         <v>126</v>
       </c>
       <c r="D265" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Bh2</v>
       </c>
       <c r="E265">
@@ -15773,7 +15782,7 @@
         <v>23</v>
       </c>
       <c r="D266" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Oi</v>
       </c>
       <c r="E266">
@@ -15827,7 +15836,7 @@
         <v>27</v>
       </c>
       <c r="D267" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Oe</v>
       </c>
       <c r="E267">
@@ -15881,7 +15890,7 @@
         <v>28</v>
       </c>
       <c r="D268" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Oa</v>
       </c>
       <c r="E268">
@@ -15938,7 +15947,7 @@
         <v>118</v>
       </c>
       <c r="D269" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Bhs</v>
       </c>
       <c r="E269">
@@ -15995,7 +16004,7 @@
         <v>102</v>
       </c>
       <c r="D270" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Bh</v>
       </c>
       <c r="E270">
@@ -16052,7 +16061,7 @@
         <v>23</v>
       </c>
       <c r="D271" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Oi</v>
       </c>
       <c r="E271">
@@ -16106,7 +16115,7 @@
         <v>27</v>
       </c>
       <c r="D272" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Oe</v>
       </c>
       <c r="E272">
@@ -16160,7 +16169,7 @@
         <v>28</v>
       </c>
       <c r="D273" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Oa</v>
       </c>
       <c r="E273">
@@ -16217,7 +16226,7 @@
         <v>118</v>
       </c>
       <c r="D274" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Bhs</v>
       </c>
       <c r="E274">
@@ -16274,7 +16283,7 @@
         <v>102</v>
       </c>
       <c r="D275" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Bh</v>
       </c>
       <c r="E275">

--- a/data/raw/hb_pedons_analysis_0426.xlsx
+++ b/data/raw/hb_pedons_analysis_0426.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab/Exchangeable/VT/Soil_Analyses/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab/Soil_Analyses/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FDC11C-80EA-A94F-B9E2-A7B2EBFDB397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3DCA55-20A8-BE4B-AB4D-027CB1BAE6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="500" windowWidth="22680" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="500" windowWidth="22680" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="horizon data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="282">
   <si>
     <t>pedon</t>
   </si>
@@ -850,9 +850,6 @@
     <t>Beech, yellow birch, spruce, striped maple</t>
   </si>
   <si>
-    <t>30 cm from soil surface to drilling surface; C horizon patchy - discontinuous pockets; A horizon variable throughout pit - disappears to right of pit face; Oa horizon dips almost to bottom of profile on left pit face; area sampled for rock fragments ~ 30 x 25 cm, chipmunk burrows throughout; no rock fragments (except a couple ORF) above 20 cm, BIG rocks below 42 cm; rock sampling column slopes down to 55 cm; 30 cm from soil surface to drilling surface on bedrock</t>
-  </si>
-  <si>
     <t>Did not get to C interface; BC--very coarse sand</t>
   </si>
   <si>
@@ -875,13 +872,22 @@
   </si>
   <si>
     <t>1mabk</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>30 cm from soil surface to drilling surface; C horizon patchy - discontinuous pockets; A horizon variable throughout pit - disappears to right of pit face; Oa horizon dips almost to bottom of profile on left pit face; area sampled for rock fragments ~ 30 x  25 cm, chipmunk burrows throughout; no rock fragments (except a couple ORF) above 20 cm, BIG rocks below 42 cm; rock sampling column slopes down to 55 cm; 30 cm from soil surface to drilling surface on bedrock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1017,11 +1023,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1365,12 +1375,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1728,7 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O212" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="O212" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L243" sqref="L243"/>
     </sheetView>
   </sheetViews>
@@ -3627,7 +3643,7 @@
         <v>56</v>
       </c>
       <c r="Q39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R39" t="s">
         <v>59</v>
@@ -3693,7 +3709,7 @@
         <v>56</v>
       </c>
       <c r="Q40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R40" t="s">
         <v>59</v>
@@ -3759,7 +3775,7 @@
         <v>56</v>
       </c>
       <c r="Q41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R41" t="s">
         <v>59</v>
@@ -3825,7 +3841,7 @@
         <v>56</v>
       </c>
       <c r="Q42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R42" t="s">
         <v>59</v>
@@ -3888,7 +3904,7 @@
         <v>56</v>
       </c>
       <c r="Q43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R43" t="s">
         <v>59</v>
@@ -3951,7 +3967,7 @@
         <v>56</v>
       </c>
       <c r="Q44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R44" t="s">
         <v>59</v>
@@ -5793,180 +5809,180 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+    <row r="81" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="1">
         <v>1</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
         <v>C.1</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="1">
         <v>73.5</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="1">
         <v>82</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="1">
         <v>8.5</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="I81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J81" s="1">
         <v>5</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K81" s="1">
         <v>3</v>
       </c>
-      <c r="L81" s="4">
-        <v>0</v>
-      </c>
-      <c r="O81" s="4" t="s">
+      <c r="L81" s="1">
+        <v>0</v>
+      </c>
+      <c r="O81" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P81" s="4" t="s">
+      <c r="P81" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q81" s="4" t="s">
+      <c r="Q81" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="R81" s="4" t="s">
+      <c r="R81" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T81" s="4">
+      <c r="T81" s="1">
         <v>40</v>
       </c>
-      <c r="U81" s="4">
-        <v>0</v>
-      </c>
-      <c r="V81" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+      <c r="U81" s="1">
+        <v>0</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="1">
         <v>2</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
         <v>C.2</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="1">
         <v>82</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="1">
         <v>90</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="1">
         <v>8</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="I82" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J82" s="4">
+      <c r="J82" s="1">
         <v>5</v>
       </c>
-      <c r="K82" s="4">
+      <c r="K82" s="1">
         <v>3</v>
       </c>
-      <c r="L82" s="4">
-        <v>0</v>
-      </c>
-      <c r="O82" s="4" t="s">
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+      <c r="O82" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P82" s="4" t="s">
+      <c r="P82" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q82" s="4" t="s">
+      <c r="Q82" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="R82" s="4" t="s">
+      <c r="R82" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T82" s="4">
+      <c r="T82" s="1">
         <v>40</v>
       </c>
-      <c r="U82" s="4">
-        <v>0</v>
-      </c>
-      <c r="V82" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W82" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+      <c r="U82" s="1">
+        <v>0</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W82" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="1">
         <v>1</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
         <v>D.1</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="1">
         <v>87</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="1">
         <v>94</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="1">
         <v>7</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="H83" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="I83" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J83" s="1">
         <v>4</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K83" s="1">
         <v>2</v>
       </c>
-      <c r="L83" s="4">
-        <v>0</v>
-      </c>
-      <c r="O83" s="4" t="s">
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+      <c r="O83" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P83" s="4" t="s">
+      <c r="P83" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T83" s="4">
-        <v>0</v>
-      </c>
-      <c r="U83" s="4">
-        <v>0</v>
-      </c>
-      <c r="V83" s="4" t="s">
+      <c r="T83" s="1">
+        <v>0</v>
+      </c>
+      <c r="U83" s="1">
+        <v>0</v>
+      </c>
+      <c r="V83" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -12639,255 +12655,255 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
+    <row r="211" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C211" s="1">
         <v>1</v>
       </c>
       <c r="D211" t="str">
         <f t="shared" si="3"/>
         <v>E.1</v>
       </c>
-      <c r="E211" s="4">
+      <c r="E211" s="1">
         <v>16</v>
       </c>
-      <c r="F211" s="4">
+      <c r="F211" s="1">
         <v>23</v>
       </c>
-      <c r="G211" s="4">
+      <c r="G211" s="1">
         <v>7</v>
       </c>
-      <c r="H211" s="4" t="s">
+      <c r="H211" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I211" s="4" t="s">
+      <c r="I211" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J211" s="4">
+      <c r="J211" s="1">
         <v>5</v>
       </c>
-      <c r="K211" s="4">
+      <c r="K211" s="1">
         <v>1</v>
       </c>
-      <c r="P211" s="4" t="s">
+      <c r="P211" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q211" s="4" t="s">
+      <c r="Q211" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R211" s="4" t="s">
+      <c r="R211" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S211" s="4" t="s">
+      <c r="S211" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="T211" s="4">
+      <c r="T211" s="1">
         <v>2</v>
       </c>
-      <c r="U211" s="4" t="s">
+      <c r="U211" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V211" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W211" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="212" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="4" t="s">
+      <c r="V211" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W211" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C212" s="4">
+      <c r="C212" s="1">
         <v>2</v>
       </c>
       <c r="D212" t="str">
         <f t="shared" si="3"/>
         <v>E.2</v>
       </c>
-      <c r="E212" s="4">
+      <c r="E212" s="1">
         <v>23</v>
       </c>
-      <c r="F212" s="4">
+      <c r="F212" s="1">
         <v>31</v>
       </c>
-      <c r="G212" s="4">
+      <c r="G212" s="1">
         <v>8</v>
       </c>
-      <c r="H212" s="4" t="s">
+      <c r="H212" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I212" s="4" t="s">
+      <c r="I212" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J212" s="4">
+      <c r="J212" s="1">
         <v>5</v>
       </c>
-      <c r="K212" s="4">
+      <c r="K212" s="1">
         <v>1</v>
       </c>
-      <c r="P212" s="4" t="s">
+      <c r="P212" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q212" s="4" t="s">
+      <c r="Q212" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R212" s="4" t="s">
+      <c r="R212" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S212" s="4" t="s">
+      <c r="S212" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="T212" s="4">
+      <c r="T212" s="1">
         <v>2</v>
       </c>
-      <c r="U212" s="4" t="s">
+      <c r="U212" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V212" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W212" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="213" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="4" t="s">
+      <c r="V212" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W212" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D213" t="str">
         <f t="shared" si="3"/>
         <v>R</v>
       </c>
-      <c r="E213" s="4">
+      <c r="E213" s="1">
         <v>31</v>
       </c>
-      <c r="F213" s="4">
+      <c r="F213" s="1">
         <v>31</v>
       </c>
-      <c r="G213" s="4">
-        <v>0</v>
-      </c>
-      <c r="V213" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="214" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="4" t="s">
+      <c r="G213" s="1">
+        <v>0</v>
+      </c>
+      <c r="V213" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D214" t="str">
         <f t="shared" si="3"/>
         <v>Oi</v>
       </c>
-      <c r="E214" s="4">
-        <v>0</v>
-      </c>
-      <c r="F214" s="4">
+      <c r="E214" s="1">
+        <v>0</v>
+      </c>
+      <c r="F214" s="1">
         <v>3</v>
       </c>
-      <c r="G214" s="4">
+      <c r="G214" s="1">
         <v>3</v>
       </c>
-      <c r="H214" s="4" t="s">
+      <c r="H214" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I214" s="4" t="s">
+      <c r="I214" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J214" s="4">
+      <c r="J214" s="1">
         <v>2.5</v>
       </c>
-      <c r="K214" s="4">
+      <c r="K214" s="1">
         <v>1</v>
       </c>
-      <c r="P214" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q214" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="R214" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="S214" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="T214" s="4">
-        <v>0</v>
-      </c>
-      <c r="U214" s="4" t="s">
+      <c r="P214" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q214" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R214" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S214" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T214" s="1">
+        <v>0</v>
+      </c>
+      <c r="U214" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V214" s="4" t="s">
+      <c r="V214" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="4" t="s">
+    <row r="215" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D215" t="str">
         <f t="shared" si="3"/>
         <v>Oe</v>
       </c>
-      <c r="E215" s="4">
+      <c r="E215" s="1">
         <v>3</v>
       </c>
-      <c r="F215" s="4">
+      <c r="F215" s="1">
         <v>13</v>
       </c>
-      <c r="G215" s="4">
+      <c r="G215" s="1">
         <v>10</v>
       </c>
-      <c r="H215" s="4" t="s">
+      <c r="H215" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I215" s="4" t="s">
+      <c r="I215" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J215" s="4">
+      <c r="J215" s="1">
         <v>2.5</v>
       </c>
-      <c r="K215" s="4">
+      <c r="K215" s="1">
         <v>1</v>
       </c>
-      <c r="P215" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q215" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="R215" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="S215" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="T215" s="4">
-        <v>0</v>
-      </c>
-      <c r="U215" s="4" t="s">
+      <c r="P215" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q215" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R215" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S215" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T215" s="1">
+        <v>0</v>
+      </c>
+      <c r="U215" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V215" s="4" t="s">
+      <c r="V215" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -16341,1666 +16357,1682 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAD3754-74BE-6D46-B2C6-8361F82AB62B}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>43654</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G2">
-        <v>281621.03100000002</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="4">
+        <v>281621.03120000003</v>
+      </c>
+      <c r="H2" s="4">
         <v>4871253.1179999998</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>43624</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G3">
-        <v>281611.74599999998</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="5">
+        <v>281611.74589999998</v>
+      </c>
+      <c r="H3" s="5">
         <v>4871245.68</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>43633</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G4">
-        <v>281626.07500000001</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="4">
+        <v>281626.0748</v>
+      </c>
+      <c r="H4" s="4">
         <v>4871243.4840000002</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>41</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>43350</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G5">
-        <v>281617.42099999997</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="4">
+        <v>281617.42119999998</v>
+      </c>
+      <c r="H5" s="4">
         <v>4871242.8679999998</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="M5" t="s">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>43633</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G6">
-        <v>281632.761</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="5">
+        <v>281632.76079999999</v>
+      </c>
+      <c r="H6" s="4">
         <v>4871213.6260000002</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>43402</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G7">
-        <v>281641.48</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="5">
+        <v>281641.48009999999</v>
+      </c>
+      <c r="H7" s="4">
         <v>4871207.7079999996</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>95</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>43741</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" t="s">
+      <c r="G8" s="6">
+        <v>281613.74</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4871216.75</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>43633</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G9">
-        <v>281664.00699999998</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="5">
+        <v>281664.0074</v>
+      </c>
+      <c r="H9" s="4">
         <v>4871152.392</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>43647</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" t="s">
+      <c r="G10" s="4">
+        <v>281640.50699999998</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4871162.898</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>56.5</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>43643</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" t="s">
+      <c r="G11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>43644</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G12">
-        <v>281667.50099999999</v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="4">
+        <v>281667.5012</v>
+      </c>
+      <c r="H12" s="4">
         <v>4871131.4380000001</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>63</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>43654</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>281671.92700000003</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>4871119.1279999996</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>281750.913</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>4871279.0750000002</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>43624</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G15">
-        <v>281771.02799999999</v>
-      </c>
-      <c r="H15">
+      <c r="G15" s="5">
+        <v>281771.02830000001</v>
+      </c>
+      <c r="H15" s="5">
         <v>4871268.2680000002</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>43634</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G16">
-        <v>281780.48300000001</v>
-      </c>
-      <c r="H16">
+      <c r="G16" s="5">
+        <v>281780.48330000002</v>
+      </c>
+      <c r="H16" s="5">
         <v>4871262.5379999997</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>43634</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G17">
-        <v>281773.223</v>
-      </c>
-      <c r="H17">
+      <c r="G17" s="5">
+        <v>281773.22320000001</v>
+      </c>
+      <c r="H17" s="5">
         <v>4871260.216</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>43634</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <v>281788.58299999998</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>4871220.5360000003</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>41.5</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>43698</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G19">
-        <v>281779.36200000002</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="5">
+        <v>281779.36229999998</v>
+      </c>
+      <c r="H19" s="5">
         <v>4871195.9989999998</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>43635</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G20">
-        <v>281790.61099999998</v>
-      </c>
-      <c r="H20">
+      <c r="G20" s="5">
+        <v>281790.61109999998</v>
+      </c>
+      <c r="H20" s="5">
         <v>4871179.3880000003</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>58</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>43649</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G21">
-        <v>281770.76699999999</v>
-      </c>
-      <c r="H21">
+      <c r="G21" s="5">
+        <v>281770.76730000001</v>
+      </c>
+      <c r="H21" s="5">
         <v>4871114.09</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <v>62</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>43644</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G22">
-        <v>281769.12199999997</v>
-      </c>
-      <c r="H22">
+      <c r="G22" s="5">
+        <v>281769.12209999998</v>
+      </c>
+      <c r="H22" s="5">
         <v>4871108.6189999999</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>43648</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G23">
-        <v>281800.74300000002</v>
-      </c>
-      <c r="H23">
+      <c r="G23" s="5">
+        <v>281800.74339999998</v>
+      </c>
+      <c r="H23" s="5">
         <v>4871175.7050000001</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>43648</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G24">
-        <v>281783.26699999999</v>
-      </c>
-      <c r="H24">
+      <c r="G24" s="5">
+        <v>281783.26740000001</v>
+      </c>
+      <c r="H24" s="5">
         <v>4871110.1289999997</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>43655</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G25">
-        <v>281731.58600000001</v>
-      </c>
-      <c r="H25">
+      <c r="G25" s="5">
+        <v>281731.58590000001</v>
+      </c>
+      <c r="H25" s="5">
         <v>4871107.7240000004</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="2" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G26">
-        <v>281947.45899999997</v>
-      </c>
-      <c r="H26">
+      <c r="G26" s="5">
+        <v>281947.45929999999</v>
+      </c>
+      <c r="H26" s="5">
         <v>4870684.7319999998</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <v>43624</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G27">
-        <v>281938.59999999998</v>
-      </c>
-      <c r="H27">
+      <c r="G27" s="5">
+        <v>281938.60029999999</v>
+      </c>
+      <c r="H27" s="5">
         <v>4870684.7460000003</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>43626</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G28">
-        <v>281915.71600000001</v>
-      </c>
-      <c r="H28">
+      <c r="G28" s="5">
+        <v>281915.7157</v>
+      </c>
+      <c r="H28" s="5">
         <v>4870652.2369999997</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="3">
         <v>43635</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G29">
-        <v>281932.34399999998</v>
-      </c>
-      <c r="H29">
+      <c r="G29" s="5">
+        <v>281932.34360000002</v>
+      </c>
+      <c r="H29" s="5">
         <v>4870683.2170000002</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>27</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="2" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <v>43983</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G30">
-        <v>281966.91399999999</v>
-      </c>
-      <c r="H30">
+      <c r="G30" s="5">
+        <v>281966.91409999999</v>
+      </c>
+      <c r="H30" s="5">
         <v>4870651.2659999998</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="2" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <v>43626</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G31">
-        <v>281844.91700000002</v>
-      </c>
-      <c r="H31">
+      <c r="G31" s="5">
+        <v>281844.91720000003</v>
+      </c>
+      <c r="H31" s="5">
         <v>4870632.7980000004</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="2">
         <v>72</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <v>43639</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G32">
-        <v>281869.72399999999</v>
-      </c>
-      <c r="H32">
+      <c r="G32" s="5">
+        <v>281869.72440000001</v>
+      </c>
+      <c r="H32" s="5">
         <v>4870640.5130000003</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="2">
         <v>45</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <v>43984</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G33">
-        <v>281944.68400000001</v>
-      </c>
-      <c r="H33">
+      <c r="G33" s="5">
+        <v>281944.68410000001</v>
+      </c>
+      <c r="H33" s="5">
         <v>4870635.4539999999</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="3">
+        <v>43628</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" s="5">
+        <v>281813.76640000002</v>
+      </c>
+      <c r="H34" s="5">
+        <v>4870628.1279999996</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="2">
-        <v>43628</v>
-      </c>
-      <c r="D34" t="s">
-        <v>265</v>
-      </c>
-      <c r="E34" t="s">
-        <v>210</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="B35" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="3">
+        <v>43651</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G34">
-        <v>281813.766</v>
-      </c>
-      <c r="H34">
-        <v>4870628.1279999996</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="G35" s="5">
+        <v>281812.55239999999</v>
+      </c>
+      <c r="H35" s="5">
+        <v>4870608.91</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J35" s="2">
+        <v>65</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="3">
+        <v>43639</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G36" s="5">
+        <v>281693.35090000002</v>
+      </c>
+      <c r="H36" s="5">
+        <v>4870611.5080000004</v>
+      </c>
+      <c r="I36" s="2">
+        <v>62</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K36" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L34" t="s">
+      <c r="N36" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M34" t="s">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="3">
+        <v>43655</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G37" s="5">
+        <v>281756.73739999998</v>
+      </c>
+      <c r="H37" s="5">
+        <v>4870600.7290000003</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N34" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="J37" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B35" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" s="2">
-        <v>43651</v>
-      </c>
-      <c r="D35" t="s">
-        <v>208</v>
-      </c>
-      <c r="E35" t="s">
-        <v>209</v>
-      </c>
-      <c r="F35" t="s">
-        <v>230</v>
-      </c>
-      <c r="G35">
-        <v>281812.55200000003</v>
-      </c>
-      <c r="H35">
-        <v>4870608.91</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="B38" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="3">
+        <v>43655</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G38" s="5">
+        <v>281768.96480000002</v>
+      </c>
+      <c r="H38" s="5">
+        <v>4870603.7439999999</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J35">
-        <v>65</v>
-      </c>
-      <c r="K35" t="s">
-        <v>274</v>
-      </c>
-      <c r="L35" t="s">
-        <v>275</v>
-      </c>
-      <c r="M35" t="s">
-        <v>77</v>
-      </c>
-      <c r="N35" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C36" s="2">
-        <v>43639</v>
-      </c>
-      <c r="D36" t="s">
-        <v>201</v>
-      </c>
-      <c r="E36" t="s">
-        <v>202</v>
-      </c>
-      <c r="F36" t="s">
-        <v>233</v>
-      </c>
-      <c r="G36">
-        <v>281693.35100000002</v>
-      </c>
-      <c r="H36">
-        <v>4870611.5080000004</v>
-      </c>
-      <c r="I36">
-        <v>62</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="J38" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K36" t="s">
-        <v>277</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="K38" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="M36" t="s">
+      <c r="L38" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N36" t="s">
+      <c r="M38" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="2">
-        <v>43655</v>
-      </c>
-      <c r="D37" t="s">
-        <v>201</v>
-      </c>
-      <c r="E37" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" t="s">
-        <v>233</v>
-      </c>
-      <c r="G37">
-        <v>281756.73700000002</v>
-      </c>
-      <c r="H37">
-        <v>4870600.7290000003</v>
-      </c>
-      <c r="I37" t="s">
-        <v>204</v>
-      </c>
-      <c r="J37" t="s">
-        <v>204</v>
-      </c>
-      <c r="K37" t="s">
-        <v>204</v>
-      </c>
-      <c r="L37" t="s">
-        <v>204</v>
-      </c>
-      <c r="M37" t="s">
-        <v>204</v>
-      </c>
-      <c r="N37" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38" s="2">
-        <v>43655</v>
-      </c>
-      <c r="D38" t="s">
-        <v>201</v>
-      </c>
-      <c r="E38" t="s">
-        <v>202</v>
-      </c>
-      <c r="F38" t="s">
-        <v>233</v>
-      </c>
-      <c r="G38">
-        <v>281768.96500000003</v>
-      </c>
-      <c r="H38">
-        <v>4870603.7439999999</v>
-      </c>
-      <c r="I38" t="s">
-        <v>204</v>
-      </c>
-      <c r="J38" t="s">
-        <v>204</v>
-      </c>
-      <c r="K38" t="s">
-        <v>279</v>
-      </c>
-      <c r="L38" t="s">
-        <v>204</v>
-      </c>
-      <c r="M38" t="s">
-        <v>204</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="N38" s="2" t="s">
         <v>204</v>
       </c>
     </row>
